--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121400</v>
+        <v>103100</v>
       </c>
       <c r="E8" s="3">
-        <v>93600</v>
+        <v>118400</v>
       </c>
       <c r="F8" s="3">
-        <v>95700</v>
+        <v>91400</v>
       </c>
       <c r="G8" s="3">
-        <v>72100</v>
+        <v>93300</v>
       </c>
       <c r="H8" s="3">
-        <v>69700</v>
+        <v>70400</v>
       </c>
       <c r="I8" s="3">
-        <v>52700</v>
+        <v>68000</v>
       </c>
       <c r="J8" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K8" s="3">
         <v>93900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>82100</v>
+        <v>69800</v>
       </c>
       <c r="E9" s="3">
-        <v>65300</v>
+        <v>80000</v>
       </c>
       <c r="F9" s="3">
-        <v>60100</v>
+        <v>63700</v>
       </c>
       <c r="G9" s="3">
-        <v>55400</v>
+        <v>58600</v>
       </c>
       <c r="H9" s="3">
-        <v>51300</v>
+        <v>54000</v>
       </c>
       <c r="I9" s="3">
-        <v>41800</v>
+        <v>50000</v>
       </c>
       <c r="J9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K9" s="3">
         <v>71600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39400</v>
+        <v>33300</v>
       </c>
       <c r="E10" s="3">
-        <v>28400</v>
+        <v>38400</v>
       </c>
       <c r="F10" s="3">
-        <v>35600</v>
+        <v>27700</v>
       </c>
       <c r="G10" s="3">
-        <v>16700</v>
+        <v>34700</v>
       </c>
       <c r="H10" s="3">
-        <v>18400</v>
+        <v>16300</v>
       </c>
       <c r="I10" s="3">
-        <v>11000</v>
+        <v>17900</v>
       </c>
       <c r="J10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K10" s="3">
         <v>22300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,46 +948,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87800</v>
+        <v>69400</v>
       </c>
       <c r="E17" s="3">
-        <v>70000</v>
+        <v>85600</v>
       </c>
       <c r="F17" s="3">
-        <v>65800</v>
+        <v>68200</v>
       </c>
       <c r="G17" s="3">
-        <v>61000</v>
+        <v>64200</v>
       </c>
       <c r="H17" s="3">
-        <v>53700</v>
+        <v>59500</v>
       </c>
       <c r="I17" s="3">
-        <v>45700</v>
+        <v>52400</v>
       </c>
       <c r="J17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K17" s="3">
         <v>80400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="E18" s="3">
-        <v>23700</v>
+        <v>32800</v>
       </c>
       <c r="F18" s="3">
-        <v>29900</v>
+        <v>23100</v>
       </c>
       <c r="G18" s="3">
-        <v>11200</v>
+        <v>29100</v>
       </c>
       <c r="H18" s="3">
-        <v>16000</v>
+        <v>10900</v>
       </c>
       <c r="I18" s="3">
-        <v>7100</v>
+        <v>15600</v>
       </c>
       <c r="J18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K18" s="3">
         <v>13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,46 +1145,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1182,14 +1219,17 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,69 +1266,75 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="E23" s="3">
-        <v>25500</v>
+        <v>34600</v>
       </c>
       <c r="F23" s="3">
-        <v>30600</v>
+        <v>24900</v>
       </c>
       <c r="G23" s="3">
-        <v>12000</v>
+        <v>29900</v>
       </c>
       <c r="H23" s="3">
-        <v>16500</v>
+        <v>11700</v>
       </c>
       <c r="I23" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8700</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
-        <v>6900</v>
+        <v>8500</v>
       </c>
       <c r="F24" s="3">
-        <v>8700</v>
+        <v>6700</v>
       </c>
       <c r="G24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>26100</v>
       </c>
       <c r="F26" s="3">
-        <v>21900</v>
+        <v>18100</v>
       </c>
       <c r="G26" s="3">
-        <v>11200</v>
+        <v>21400</v>
       </c>
       <c r="H26" s="3">
-        <v>16500</v>
+        <v>10900</v>
       </c>
       <c r="I26" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K26" s="3">
         <v>14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>24900</v>
+        <v>28300</v>
       </c>
       <c r="E27" s="3">
-        <v>17200</v>
+        <v>24300</v>
       </c>
       <c r="F27" s="3">
-        <v>21900</v>
+        <v>16800</v>
       </c>
       <c r="G27" s="3">
-        <v>11200</v>
+        <v>21400</v>
       </c>
       <c r="H27" s="3">
-        <v>16500</v>
+        <v>10900</v>
       </c>
       <c r="I27" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K27" s="3">
         <v>14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24900</v>
+        <v>28300</v>
       </c>
       <c r="E33" s="3">
-        <v>17200</v>
+        <v>24300</v>
       </c>
       <c r="F33" s="3">
-        <v>21900</v>
+        <v>16800</v>
       </c>
       <c r="G33" s="3">
-        <v>11200</v>
+        <v>21400</v>
       </c>
       <c r="H33" s="3">
-        <v>16500</v>
+        <v>10900</v>
       </c>
       <c r="I33" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K33" s="3">
         <v>14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24900</v>
+        <v>28300</v>
       </c>
       <c r="E35" s="3">
-        <v>17200</v>
+        <v>24300</v>
       </c>
       <c r="F35" s="3">
-        <v>21900</v>
+        <v>16800</v>
       </c>
       <c r="G35" s="3">
-        <v>11200</v>
+        <v>21400</v>
       </c>
       <c r="H35" s="3">
-        <v>16500</v>
+        <v>10900</v>
       </c>
       <c r="I35" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K35" s="3">
         <v>14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37400</v>
+        <v>31900</v>
       </c>
       <c r="E41" s="3">
-        <v>178500</v>
+        <v>36500</v>
       </c>
       <c r="F41" s="3">
-        <v>116600</v>
+        <v>174200</v>
       </c>
       <c r="G41" s="3">
-        <v>44700</v>
+        <v>113700</v>
       </c>
       <c r="H41" s="3">
-        <v>11200</v>
+        <v>43600</v>
       </c>
       <c r="I41" s="3">
-        <v>41000</v>
+        <v>10900</v>
       </c>
       <c r="J41" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,14 +1955,17 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1880,37 +1973,40 @@
         <v>13200</v>
       </c>
       <c r="E43" s="3">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="F43" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="H43" s="3">
-        <v>16200</v>
+        <v>12500</v>
       </c>
       <c r="I43" s="3">
-        <v>14600</v>
+        <v>15800</v>
       </c>
       <c r="J43" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,84 +2043,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203800</v>
+        <v>183400</v>
       </c>
       <c r="E45" s="3">
-        <v>60500</v>
+        <v>198800</v>
       </c>
       <c r="F45" s="3">
-        <v>31400</v>
+        <v>59000</v>
       </c>
       <c r="G45" s="3">
-        <v>114100</v>
+        <v>30700</v>
       </c>
       <c r="H45" s="3">
-        <v>57800</v>
+        <v>111300</v>
       </c>
       <c r="I45" s="3">
-        <v>66200</v>
+        <v>56300</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>64500</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>21100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254400</v>
+        <v>228500</v>
       </c>
       <c r="E46" s="3">
-        <v>253100</v>
+        <v>248100</v>
       </c>
       <c r="F46" s="3">
-        <v>161700</v>
+        <v>246900</v>
       </c>
       <c r="G46" s="3">
-        <v>171600</v>
+        <v>157700</v>
       </c>
       <c r="H46" s="3">
-        <v>85100</v>
+        <v>167400</v>
       </c>
       <c r="I46" s="3">
-        <v>121900</v>
+        <v>83000</v>
       </c>
       <c r="J46" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K46" s="3">
         <v>43600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>116300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,84 +2166,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89000</v>
+        <v>161700</v>
       </c>
       <c r="E48" s="3">
-        <v>94400</v>
+        <v>86900</v>
       </c>
       <c r="F48" s="3">
-        <v>97400</v>
+        <v>92100</v>
       </c>
       <c r="G48" s="3">
-        <v>104700</v>
+        <v>95000</v>
       </c>
       <c r="H48" s="3">
-        <v>103400</v>
+        <v>102100</v>
       </c>
       <c r="I48" s="3">
-        <v>108300</v>
+        <v>100900</v>
       </c>
       <c r="J48" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K48" s="3">
         <v>106200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="E49" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="F49" s="3">
-        <v>11300</v>
+        <v>13400</v>
       </c>
       <c r="G49" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I49" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K49" s="3">
         <v>11500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12000</v>
       </c>
       <c r="L49" s="3">
         <v>12000</v>
       </c>
       <c r="M49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N49" s="3">
         <v>11800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>359100</v>
+        <v>406000</v>
       </c>
       <c r="E54" s="3">
-        <v>363700</v>
+        <v>350300</v>
       </c>
       <c r="F54" s="3">
-        <v>270400</v>
+        <v>354800</v>
       </c>
       <c r="G54" s="3">
-        <v>287700</v>
+        <v>263800</v>
       </c>
       <c r="H54" s="3">
-        <v>200700</v>
+        <v>280600</v>
       </c>
       <c r="I54" s="3">
-        <v>242300</v>
+        <v>195800</v>
       </c>
       <c r="J54" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K54" s="3">
         <v>162600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>205500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,69 +2489,73 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31300</v>
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>30500</v>
       </c>
       <c r="F57" s="3">
-        <v>20300</v>
+        <v>21700</v>
       </c>
       <c r="G57" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="H57" s="3">
-        <v>16300</v>
+        <v>18500</v>
       </c>
       <c r="I57" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="J57" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2435,89 +2569,98 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84400</v>
+        <v>119200</v>
       </c>
       <c r="E59" s="3">
-        <v>127300</v>
+        <v>82300</v>
       </c>
       <c r="F59" s="3">
-        <v>58600</v>
+        <v>124200</v>
       </c>
       <c r="G59" s="3">
-        <v>99900</v>
+        <v>57200</v>
       </c>
       <c r="H59" s="3">
-        <v>26300</v>
+        <v>97500</v>
       </c>
       <c r="I59" s="3">
-        <v>84800</v>
+        <v>25700</v>
       </c>
       <c r="J59" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>115700</v>
+        <v>142000</v>
       </c>
       <c r="E60" s="3">
-        <v>149600</v>
+        <v>112900</v>
       </c>
       <c r="F60" s="3">
-        <v>78900</v>
+        <v>145900</v>
       </c>
       <c r="G60" s="3">
-        <v>118900</v>
+        <v>77000</v>
       </c>
       <c r="H60" s="3">
-        <v>42700</v>
+        <v>116000</v>
       </c>
       <c r="I60" s="3">
-        <v>101800</v>
+        <v>41600</v>
       </c>
       <c r="J60" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K60" s="3">
         <v>30300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2558,11 +2704,11 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2575,8 +2721,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122100</v>
+        <v>146400</v>
       </c>
       <c r="E66" s="3">
-        <v>153700</v>
+        <v>119100</v>
       </c>
       <c r="F66" s="3">
-        <v>80800</v>
+        <v>150000</v>
       </c>
       <c r="G66" s="3">
-        <v>118900</v>
+        <v>78800</v>
       </c>
       <c r="H66" s="3">
-        <v>42700</v>
+        <v>116000</v>
       </c>
       <c r="I66" s="3">
-        <v>101800</v>
+        <v>41600</v>
       </c>
       <c r="J66" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K66" s="3">
         <v>30300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>181600</v>
+        <v>205600</v>
       </c>
       <c r="E72" s="3">
-        <v>156700</v>
+        <v>177200</v>
       </c>
       <c r="F72" s="3">
-        <v>136400</v>
+        <v>152900</v>
       </c>
       <c r="G72" s="3">
-        <v>114500</v>
+        <v>133100</v>
       </c>
       <c r="H72" s="3">
-        <v>103300</v>
+        <v>111700</v>
       </c>
       <c r="I72" s="3">
-        <v>86900</v>
+        <v>100800</v>
       </c>
       <c r="J72" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K72" s="3">
         <v>79300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>68800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>65900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>237000</v>
+        <v>259600</v>
       </c>
       <c r="E76" s="3">
-        <v>209900</v>
+        <v>231200</v>
       </c>
       <c r="F76" s="3">
-        <v>189600</v>
+        <v>204800</v>
       </c>
       <c r="G76" s="3">
-        <v>168700</v>
+        <v>185000</v>
       </c>
       <c r="H76" s="3">
-        <v>158100</v>
+        <v>164600</v>
       </c>
       <c r="I76" s="3">
-        <v>140500</v>
+        <v>154200</v>
       </c>
       <c r="J76" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K76" s="3">
         <v>132200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24900</v>
+        <v>28300</v>
       </c>
       <c r="E81" s="3">
-        <v>17200</v>
+        <v>24300</v>
       </c>
       <c r="F81" s="3">
-        <v>21900</v>
+        <v>16800</v>
       </c>
       <c r="G81" s="3">
-        <v>11200</v>
+        <v>21400</v>
       </c>
       <c r="H81" s="3">
-        <v>16500</v>
+        <v>10900</v>
       </c>
       <c r="I81" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="J81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K81" s="3">
         <v>14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,31 +3674,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>66600</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3498,8 +3715,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,31 +3855,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-64000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,31 +4077,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3872,8 +4118,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3946,6 +4198,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -735,25 +735,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>103100</v>
+        <v>107000</v>
       </c>
       <c r="E8" s="3">
-        <v>118400</v>
+        <v>122900</v>
       </c>
       <c r="F8" s="3">
-        <v>91400</v>
+        <v>94800</v>
       </c>
       <c r="G8" s="3">
-        <v>93300</v>
+        <v>96800</v>
       </c>
       <c r="H8" s="3">
-        <v>70400</v>
+        <v>73000</v>
       </c>
       <c r="I8" s="3">
-        <v>68000</v>
+        <v>70500</v>
       </c>
       <c r="J8" s="3">
-        <v>51400</v>
+        <v>53400</v>
       </c>
       <c r="K8" s="3">
         <v>93900</v>
@@ -776,25 +776,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69800</v>
+        <v>72500</v>
       </c>
       <c r="E9" s="3">
-        <v>80000</v>
+        <v>83100</v>
       </c>
       <c r="F9" s="3">
-        <v>63700</v>
+        <v>66100</v>
       </c>
       <c r="G9" s="3">
-        <v>58600</v>
+        <v>60800</v>
       </c>
       <c r="H9" s="3">
-        <v>54000</v>
+        <v>56100</v>
       </c>
       <c r="I9" s="3">
-        <v>50000</v>
+        <v>51900</v>
       </c>
       <c r="J9" s="3">
-        <v>40700</v>
+        <v>42300</v>
       </c>
       <c r="K9" s="3">
         <v>71600</v>
@@ -817,25 +817,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33300</v>
+        <v>34500</v>
       </c>
       <c r="E10" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="F10" s="3">
-        <v>27700</v>
+        <v>28700</v>
       </c>
       <c r="G10" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="H10" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I10" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="J10" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="K10" s="3">
         <v>22300</v>
@@ -966,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="E17" s="3">
-        <v>85600</v>
+        <v>88900</v>
       </c>
       <c r="F17" s="3">
-        <v>68200</v>
+        <v>70800</v>
       </c>
       <c r="G17" s="3">
-        <v>64200</v>
+        <v>66600</v>
       </c>
       <c r="H17" s="3">
-        <v>59500</v>
+        <v>61700</v>
       </c>
       <c r="I17" s="3">
-        <v>52400</v>
+        <v>54300</v>
       </c>
       <c r="J17" s="3">
-        <v>44600</v>
+        <v>46200</v>
       </c>
       <c r="K17" s="3">
         <v>80400</v>
@@ -1094,25 +1094,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33700</v>
+        <v>35000</v>
       </c>
       <c r="E18" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="F18" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="G18" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="H18" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="J18" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="K18" s="3">
         <v>13400</v>
@@ -1155,19 +1155,19 @@
         <v>1400</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35100</v>
+        <v>36400</v>
       </c>
       <c r="E23" s="3">
-        <v>34600</v>
+        <v>35900</v>
       </c>
       <c r="F23" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="G23" s="3">
-        <v>29900</v>
+        <v>31000</v>
       </c>
       <c r="H23" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="I23" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J23" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K23" s="3">
         <v>14300</v>
@@ -1316,19 +1316,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="F24" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1398,25 +1398,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27700</v>
+        <v>28700</v>
       </c>
       <c r="E26" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="F26" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="G26" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H26" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I26" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J26" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K26" s="3">
         <v>14300</v>
@@ -1439,25 +1439,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="E27" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F27" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G27" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H27" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I27" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J27" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K27" s="3">
         <v>14300</v>
@@ -1647,19 +1647,19 @@
         <v>-1400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
@@ -1685,25 +1685,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="E33" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F33" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G33" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H33" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I33" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J33" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K33" s="3">
         <v>14300</v>
@@ -1767,25 +1767,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="E35" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F35" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G35" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H35" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I35" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J35" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K35" s="3">
         <v>14300</v>
@@ -1888,25 +1888,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31900</v>
+        <v>33100</v>
       </c>
       <c r="E41" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="F41" s="3">
-        <v>174200</v>
+        <v>180700</v>
       </c>
       <c r="G41" s="3">
-        <v>113700</v>
+        <v>118000</v>
       </c>
       <c r="H41" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="I41" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="J41" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="K41" s="3">
         <v>41800</v>
@@ -1970,25 +1970,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="E43" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="G43" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="H43" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I43" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="J43" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="K43" s="3">
         <v>1800</v>
@@ -2052,25 +2052,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>183400</v>
+        <v>190300</v>
       </c>
       <c r="E45" s="3">
-        <v>198800</v>
+        <v>206300</v>
       </c>
       <c r="F45" s="3">
-        <v>59000</v>
+        <v>61300</v>
       </c>
       <c r="G45" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="H45" s="3">
-        <v>111300</v>
+        <v>115500</v>
       </c>
       <c r="I45" s="3">
-        <v>56300</v>
+        <v>58500</v>
       </c>
       <c r="J45" s="3">
-        <v>64500</v>
+        <v>67000</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2093,25 +2093,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>228500</v>
+        <v>237100</v>
       </c>
       <c r="E46" s="3">
-        <v>248100</v>
+        <v>257500</v>
       </c>
       <c r="F46" s="3">
-        <v>246900</v>
+        <v>256100</v>
       </c>
       <c r="G46" s="3">
-        <v>157700</v>
+        <v>163700</v>
       </c>
       <c r="H46" s="3">
-        <v>167400</v>
+        <v>173700</v>
       </c>
       <c r="I46" s="3">
-        <v>83000</v>
+        <v>86100</v>
       </c>
       <c r="J46" s="3">
-        <v>118900</v>
+        <v>123300</v>
       </c>
       <c r="K46" s="3">
         <v>43600</v>
@@ -2175,25 +2175,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E48" s="3">
-        <v>86900</v>
+        <v>90100</v>
       </c>
       <c r="F48" s="3">
-        <v>92100</v>
+        <v>95600</v>
       </c>
       <c r="G48" s="3">
-        <v>95000</v>
+        <v>98600</v>
       </c>
       <c r="H48" s="3">
-        <v>102100</v>
+        <v>105900</v>
       </c>
       <c r="I48" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="J48" s="3">
-        <v>105600</v>
+        <v>109600</v>
       </c>
       <c r="K48" s="3">
         <v>106200</v>
@@ -2216,25 +2216,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="E49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F49" s="3">
         <v>13900</v>
       </c>
-      <c r="F49" s="3">
-        <v>13400</v>
-      </c>
       <c r="G49" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="H49" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I49" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="K49" s="3">
         <v>11500</v>
@@ -2339,13 +2339,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
@@ -2421,25 +2421,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>406000</v>
+        <v>421300</v>
       </c>
       <c r="E54" s="3">
-        <v>350300</v>
+        <v>363500</v>
       </c>
       <c r="F54" s="3">
-        <v>354800</v>
+        <v>368100</v>
       </c>
       <c r="G54" s="3">
-        <v>263800</v>
+        <v>273700</v>
       </c>
       <c r="H54" s="3">
-        <v>280600</v>
+        <v>291200</v>
       </c>
       <c r="I54" s="3">
-        <v>195800</v>
+        <v>203200</v>
       </c>
       <c r="J54" s="3">
-        <v>236400</v>
+        <v>245300</v>
       </c>
       <c r="K54" s="3">
         <v>162600</v>
@@ -2496,25 +2496,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="E57" s="3">
-        <v>30500</v>
+        <v>31700</v>
       </c>
       <c r="F57" s="3">
-        <v>21700</v>
+        <v>22600</v>
       </c>
       <c r="G57" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="H57" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="I57" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="J57" s="3">
-        <v>16600</v>
+        <v>17300</v>
       </c>
       <c r="K57" s="3">
         <v>6400</v>
@@ -2578,25 +2578,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119200</v>
+        <v>123700</v>
       </c>
       <c r="E59" s="3">
-        <v>82300</v>
+        <v>85400</v>
       </c>
       <c r="F59" s="3">
-        <v>124200</v>
+        <v>128800</v>
       </c>
       <c r="G59" s="3">
-        <v>57200</v>
+        <v>59300</v>
       </c>
       <c r="H59" s="3">
-        <v>97500</v>
+        <v>101200</v>
       </c>
       <c r="I59" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="J59" s="3">
-        <v>82700</v>
+        <v>85800</v>
       </c>
       <c r="K59" s="3">
         <v>23900</v>
@@ -2619,25 +2619,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>142000</v>
+        <v>147300</v>
       </c>
       <c r="E60" s="3">
-        <v>112900</v>
+        <v>117100</v>
       </c>
       <c r="F60" s="3">
-        <v>145900</v>
+        <v>151400</v>
       </c>
       <c r="G60" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="H60" s="3">
-        <v>116000</v>
+        <v>120400</v>
       </c>
       <c r="I60" s="3">
-        <v>41600</v>
+        <v>43200</v>
       </c>
       <c r="J60" s="3">
-        <v>99300</v>
+        <v>103100</v>
       </c>
       <c r="K60" s="3">
         <v>30300</v>
@@ -2660,7 +2660,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -2865,25 +2865,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146400</v>
+        <v>151900</v>
       </c>
       <c r="E66" s="3">
-        <v>119100</v>
+        <v>123600</v>
       </c>
       <c r="F66" s="3">
-        <v>150000</v>
+        <v>155600</v>
       </c>
       <c r="G66" s="3">
-        <v>78800</v>
+        <v>81800</v>
       </c>
       <c r="H66" s="3">
-        <v>116000</v>
+        <v>120400</v>
       </c>
       <c r="I66" s="3">
-        <v>41600</v>
+        <v>43200</v>
       </c>
       <c r="J66" s="3">
-        <v>99300</v>
+        <v>103100</v>
       </c>
       <c r="K66" s="3">
         <v>30300</v>
@@ -3087,25 +3087,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>205600</v>
+        <v>213400</v>
       </c>
       <c r="E72" s="3">
-        <v>177200</v>
+        <v>183800</v>
       </c>
       <c r="F72" s="3">
-        <v>152900</v>
+        <v>158600</v>
       </c>
       <c r="G72" s="3">
-        <v>133100</v>
+        <v>138100</v>
       </c>
       <c r="H72" s="3">
-        <v>111700</v>
+        <v>115900</v>
       </c>
       <c r="I72" s="3">
-        <v>100800</v>
+        <v>104600</v>
       </c>
       <c r="J72" s="3">
-        <v>84700</v>
+        <v>87900</v>
       </c>
       <c r="K72" s="3">
         <v>79300</v>
@@ -3251,25 +3251,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>259600</v>
+        <v>269400</v>
       </c>
       <c r="E76" s="3">
-        <v>231200</v>
+        <v>239900</v>
       </c>
       <c r="F76" s="3">
-        <v>204800</v>
+        <v>212500</v>
       </c>
       <c r="G76" s="3">
-        <v>185000</v>
+        <v>191900</v>
       </c>
       <c r="H76" s="3">
-        <v>164600</v>
+        <v>170800</v>
       </c>
       <c r="I76" s="3">
-        <v>154200</v>
+        <v>160000</v>
       </c>
       <c r="J76" s="3">
-        <v>137100</v>
+        <v>142200</v>
       </c>
       <c r="K76" s="3">
         <v>132200</v>
@@ -3379,25 +3379,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="E81" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F81" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G81" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H81" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I81" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="J81" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K81" s="3">
         <v>14300</v>
@@ -3683,7 +3683,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66600</v>
+        <v>69100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64000</v>
+        <v>-66400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -4086,7 +4086,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>107000</v>
+        <v>113500</v>
       </c>
       <c r="E8" s="3">
-        <v>122900</v>
+        <v>112100</v>
       </c>
       <c r="F8" s="3">
-        <v>94800</v>
+        <v>128700</v>
       </c>
       <c r="G8" s="3">
-        <v>96800</v>
+        <v>99300</v>
       </c>
       <c r="H8" s="3">
-        <v>73000</v>
+        <v>101400</v>
       </c>
       <c r="I8" s="3">
-        <v>70500</v>
+        <v>76500</v>
       </c>
       <c r="J8" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K8" s="3">
         <v>53400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>93900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="E9" s="3">
-        <v>83100</v>
+        <v>75900</v>
       </c>
       <c r="F9" s="3">
-        <v>66100</v>
+        <v>87000</v>
       </c>
       <c r="G9" s="3">
-        <v>60800</v>
+        <v>69200</v>
       </c>
       <c r="H9" s="3">
-        <v>56100</v>
+        <v>63700</v>
       </c>
       <c r="I9" s="3">
-        <v>51900</v>
+        <v>58700</v>
       </c>
       <c r="J9" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K9" s="3">
         <v>42300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34500</v>
+        <v>39800</v>
       </c>
       <c r="E10" s="3">
-        <v>39800</v>
+        <v>36200</v>
       </c>
       <c r="F10" s="3">
-        <v>28700</v>
+        <v>41700</v>
       </c>
       <c r="G10" s="3">
-        <v>36000</v>
+        <v>30100</v>
       </c>
       <c r="H10" s="3">
-        <v>16900</v>
+        <v>37700</v>
       </c>
       <c r="I10" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,49 +968,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72000</v>
+        <v>78900</v>
       </c>
       <c r="E17" s="3">
-        <v>88900</v>
+        <v>75400</v>
       </c>
       <c r="F17" s="3">
-        <v>70800</v>
+        <v>93100</v>
       </c>
       <c r="G17" s="3">
-        <v>66600</v>
+        <v>74200</v>
       </c>
       <c r="H17" s="3">
-        <v>61700</v>
+        <v>69800</v>
       </c>
       <c r="I17" s="3">
-        <v>54300</v>
+        <v>64600</v>
       </c>
       <c r="J17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K17" s="3">
         <v>46200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="E18" s="3">
-        <v>34000</v>
+        <v>36600</v>
       </c>
       <c r="F18" s="3">
-        <v>24000</v>
+        <v>35700</v>
       </c>
       <c r="G18" s="3">
-        <v>30200</v>
+        <v>25100</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>31700</v>
       </c>
       <c r="I18" s="3">
-        <v>16200</v>
+        <v>11800</v>
       </c>
       <c r="J18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,49 +1179,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,14 +1259,17 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,75 +1309,81 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>36400</v>
+        <v>36200</v>
       </c>
       <c r="E23" s="3">
-        <v>35900</v>
+        <v>38100</v>
       </c>
       <c r="F23" s="3">
-        <v>25800</v>
+        <v>37600</v>
       </c>
       <c r="G23" s="3">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="H23" s="3">
-        <v>12200</v>
+        <v>32500</v>
       </c>
       <c r="I23" s="3">
-        <v>16700</v>
+        <v>12800</v>
       </c>
       <c r="J23" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>9200</v>
       </c>
       <c r="G24" s="3">
-        <v>8800</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1351,8 +1397,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28700</v>
+        <v>25700</v>
       </c>
       <c r="E26" s="3">
-        <v>27000</v>
+        <v>30100</v>
       </c>
       <c r="F26" s="3">
-        <v>18800</v>
+        <v>28300</v>
       </c>
       <c r="G26" s="3">
-        <v>22200</v>
+        <v>19700</v>
       </c>
       <c r="H26" s="3">
-        <v>11300</v>
+        <v>23300</v>
       </c>
       <c r="I26" s="3">
-        <v>16700</v>
+        <v>11900</v>
       </c>
       <c r="J26" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K26" s="3">
         <v>7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29300</v>
+        <v>25700</v>
       </c>
       <c r="E27" s="3">
-        <v>25200</v>
+        <v>30700</v>
       </c>
       <c r="F27" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="G27" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
       </c>
       <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29300</v>
+        <v>25700</v>
       </c>
       <c r="E33" s="3">
-        <v>25200</v>
+        <v>30700</v>
       </c>
       <c r="F33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="G33" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29300</v>
+        <v>25700</v>
       </c>
       <c r="E35" s="3">
-        <v>25200</v>
+        <v>30700</v>
       </c>
       <c r="F35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="G35" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33100</v>
+        <v>76500</v>
       </c>
       <c r="E41" s="3">
-        <v>37900</v>
+        <v>34700</v>
       </c>
       <c r="F41" s="3">
-        <v>180700</v>
+        <v>39700</v>
       </c>
       <c r="G41" s="3">
-        <v>118000</v>
+        <v>189300</v>
       </c>
       <c r="H41" s="3">
-        <v>45200</v>
+        <v>123600</v>
       </c>
       <c r="I41" s="3">
-        <v>11300</v>
+        <v>47300</v>
       </c>
       <c r="J41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K41" s="3">
         <v>41500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,55 +2048,61 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13700</v>
+        <v>12300</v>
       </c>
       <c r="E43" s="3">
-        <v>13300</v>
+        <v>14300</v>
       </c>
       <c r="F43" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="G43" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="H43" s="3">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="I43" s="3">
-        <v>16400</v>
+        <v>13600</v>
       </c>
       <c r="J43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K43" s="3">
         <v>14800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,90 +2142,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>190300</v>
+        <v>144400</v>
       </c>
       <c r="E45" s="3">
-        <v>206300</v>
+        <v>199300</v>
       </c>
       <c r="F45" s="3">
-        <v>61300</v>
+        <v>216100</v>
       </c>
       <c r="G45" s="3">
-        <v>31800</v>
+        <v>64200</v>
       </c>
       <c r="H45" s="3">
-        <v>115500</v>
+        <v>33300</v>
       </c>
       <c r="I45" s="3">
-        <v>58500</v>
+        <v>121000</v>
       </c>
       <c r="J45" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K45" s="3">
         <v>67000</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>21100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>237100</v>
+        <v>233200</v>
       </c>
       <c r="E46" s="3">
-        <v>257500</v>
+        <v>248300</v>
       </c>
       <c r="F46" s="3">
-        <v>256100</v>
+        <v>269700</v>
       </c>
       <c r="G46" s="3">
-        <v>163700</v>
+        <v>268300</v>
       </c>
       <c r="H46" s="3">
-        <v>173700</v>
+        <v>171400</v>
       </c>
       <c r="I46" s="3">
-        <v>86100</v>
+        <v>181900</v>
       </c>
       <c r="J46" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K46" s="3">
         <v>123300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>116300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,90 +2274,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>167800</v>
+        <v>174400</v>
       </c>
       <c r="E48" s="3">
-        <v>90100</v>
+        <v>175800</v>
       </c>
       <c r="F48" s="3">
-        <v>95600</v>
+        <v>94400</v>
       </c>
       <c r="G48" s="3">
-        <v>98600</v>
+        <v>100100</v>
       </c>
       <c r="H48" s="3">
-        <v>105900</v>
+        <v>103300</v>
       </c>
       <c r="I48" s="3">
-        <v>104700</v>
+        <v>111000</v>
       </c>
       <c r="J48" s="3">
         <v>109600</v>
       </c>
       <c r="K48" s="3">
+        <v>109600</v>
+      </c>
+      <c r="L48" s="3">
         <v>106200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="E49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G49" s="3">
         <v>14500</v>
       </c>
-      <c r="F49" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11400</v>
-      </c>
       <c r="H49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L49" s="3">
         <v>11500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>11600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>11500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12000</v>
       </c>
       <c r="M49" s="3">
         <v>12000</v>
       </c>
       <c r="N49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O49" s="3">
         <v>11800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
-        <v>2500</v>
-      </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
-        <v>800</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>421300</v>
+        <v>424200</v>
       </c>
       <c r="E54" s="3">
-        <v>363500</v>
+        <v>441300</v>
       </c>
       <c r="F54" s="3">
-        <v>368100</v>
+        <v>380700</v>
       </c>
       <c r="G54" s="3">
-        <v>273700</v>
+        <v>385600</v>
       </c>
       <c r="H54" s="3">
-        <v>291200</v>
+        <v>286700</v>
       </c>
       <c r="I54" s="3">
-        <v>203200</v>
+        <v>305000</v>
       </c>
       <c r="J54" s="3">
+        <v>212800</v>
+      </c>
+      <c r="K54" s="3">
         <v>245300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>205500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,58 +2620,62 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23400</v>
+        <v>40300</v>
       </c>
       <c r="E57" s="3">
-        <v>31700</v>
+        <v>24500</v>
       </c>
       <c r="F57" s="3">
-        <v>22600</v>
+        <v>33200</v>
       </c>
       <c r="G57" s="3">
-        <v>20600</v>
+        <v>23600</v>
       </c>
       <c r="H57" s="3">
-        <v>19200</v>
+        <v>21500</v>
       </c>
       <c r="I57" s="3">
-        <v>16500</v>
+        <v>20100</v>
       </c>
       <c r="J57" s="3">
         <v>17300</v>
       </c>
       <c r="K57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2557,8 +2691,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2572,98 +2706,107 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>123700</v>
+        <v>69900</v>
       </c>
       <c r="E59" s="3">
-        <v>85400</v>
+        <v>129600</v>
       </c>
       <c r="F59" s="3">
-        <v>128800</v>
+        <v>89500</v>
       </c>
       <c r="G59" s="3">
-        <v>59300</v>
+        <v>135000</v>
       </c>
       <c r="H59" s="3">
-        <v>101200</v>
+        <v>62100</v>
       </c>
       <c r="I59" s="3">
-        <v>26700</v>
+        <v>106000</v>
       </c>
       <c r="J59" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K59" s="3">
         <v>85800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>147300</v>
+        <v>110500</v>
       </c>
       <c r="E60" s="3">
-        <v>117100</v>
+        <v>154300</v>
       </c>
       <c r="F60" s="3">
-        <v>151400</v>
+        <v>122700</v>
       </c>
       <c r="G60" s="3">
-        <v>79900</v>
+        <v>158600</v>
       </c>
       <c r="H60" s="3">
-        <v>120400</v>
+        <v>83700</v>
       </c>
       <c r="I60" s="3">
-        <v>43200</v>
+        <v>126100</v>
       </c>
       <c r="J60" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K60" s="3">
         <v>103100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2695,23 +2838,26 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2724,8 +2870,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151900</v>
+        <v>116200</v>
       </c>
       <c r="E66" s="3">
-        <v>123600</v>
+        <v>159100</v>
       </c>
       <c r="F66" s="3">
-        <v>155600</v>
+        <v>129500</v>
       </c>
       <c r="G66" s="3">
-        <v>81800</v>
+        <v>163000</v>
       </c>
       <c r="H66" s="3">
-        <v>120400</v>
+        <v>85700</v>
       </c>
       <c r="I66" s="3">
-        <v>43200</v>
+        <v>126100</v>
       </c>
       <c r="J66" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K66" s="3">
         <v>103100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>213400</v>
+        <v>249300</v>
       </c>
       <c r="E72" s="3">
-        <v>183800</v>
+        <v>223500</v>
       </c>
       <c r="F72" s="3">
-        <v>158600</v>
+        <v>192600</v>
       </c>
       <c r="G72" s="3">
-        <v>138100</v>
+        <v>166200</v>
       </c>
       <c r="H72" s="3">
-        <v>115900</v>
+        <v>144700</v>
       </c>
       <c r="I72" s="3">
-        <v>104600</v>
+        <v>121400</v>
       </c>
       <c r="J72" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K72" s="3">
         <v>87900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>68800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>65900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>269400</v>
+        <v>308000</v>
       </c>
       <c r="E76" s="3">
-        <v>239900</v>
+        <v>282200</v>
       </c>
       <c r="F76" s="3">
-        <v>212500</v>
+        <v>251300</v>
       </c>
       <c r="G76" s="3">
-        <v>191900</v>
+        <v>222600</v>
       </c>
       <c r="H76" s="3">
-        <v>170800</v>
+        <v>201100</v>
       </c>
       <c r="I76" s="3">
-        <v>160000</v>
+        <v>178900</v>
       </c>
       <c r="J76" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K76" s="3">
         <v>142200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29300</v>
+        <v>25700</v>
       </c>
       <c r="E81" s="3">
-        <v>25200</v>
+        <v>30700</v>
       </c>
       <c r="F81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="G81" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,16 +3891,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>72400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
@@ -3703,8 +3920,8 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3718,8 +3935,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,16 +4085,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66400</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>50100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-69500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
@@ -3884,8 +4114,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3899,8 +4129,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,16 +4323,19 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
@@ -4106,8 +4352,8 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4121,8 +4367,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,8 +4411,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4201,6 +4453,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -674,199 +673,225 @@
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>113500</v>
+        <v>97600</v>
       </c>
       <c r="E8" s="3">
-        <v>112100</v>
+        <v>45600</v>
       </c>
       <c r="F8" s="3">
-        <v>128700</v>
+        <v>114000</v>
       </c>
       <c r="G8" s="3">
-        <v>99300</v>
+        <v>112600</v>
       </c>
       <c r="H8" s="3">
-        <v>101400</v>
+        <v>129300</v>
       </c>
       <c r="I8" s="3">
+        <v>99700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K8" s="3">
         <v>76500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>73900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>53400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>93900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>30400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>24500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>73700</v>
+        <v>49100</v>
       </c>
       <c r="E9" s="3">
-        <v>75900</v>
+        <v>38800</v>
       </c>
       <c r="F9" s="3">
-        <v>87000</v>
+        <v>74000</v>
       </c>
       <c r="G9" s="3">
-        <v>69200</v>
+        <v>76200</v>
       </c>
       <c r="H9" s="3">
-        <v>63700</v>
+        <v>87400</v>
       </c>
       <c r="I9" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K9" s="3">
         <v>58700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>54400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>42300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>71600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>21900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39800</v>
+        <v>48400</v>
       </c>
       <c r="E10" s="3">
-        <v>36200</v>
+        <v>6800</v>
       </c>
       <c r="F10" s="3">
-        <v>41700</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="3">
-        <v>30100</v>
+        <v>36300</v>
       </c>
       <c r="H10" s="3">
-        <v>37700</v>
+        <v>41900</v>
       </c>
       <c r="I10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>22300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>10300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +908,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +954,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,13 +1004,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -989,34 +1028,40 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1104,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1125,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>78900</v>
+        <v>52000</v>
       </c>
       <c r="E17" s="3">
-        <v>75400</v>
+        <v>39700</v>
       </c>
       <c r="F17" s="3">
-        <v>93100</v>
+        <v>79300</v>
       </c>
       <c r="G17" s="3">
-        <v>74200</v>
+        <v>75800</v>
       </c>
       <c r="H17" s="3">
-        <v>69800</v>
+        <v>93500</v>
       </c>
       <c r="I17" s="3">
+        <v>74500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K17" s="3">
         <v>64600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>56900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>46200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>80400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34500</v>
+        <v>45600</v>
       </c>
       <c r="E18" s="3">
-        <v>36600</v>
+        <v>5900</v>
       </c>
       <c r="F18" s="3">
-        <v>35700</v>
+        <v>34700</v>
       </c>
       <c r="G18" s="3">
-        <v>25100</v>
+        <v>36800</v>
       </c>
       <c r="H18" s="3">
-        <v>31700</v>
+        <v>35800</v>
       </c>
       <c r="I18" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>13400</v>
       </c>
       <c r="M18" s="3">
         <v>7200</v>
       </c>
       <c r="N18" s="3">
+        <v>13400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,8 +1245,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1189,43 +1256,49 @@
         <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,14 +1335,20 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,84 +1391,96 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>36200</v>
+        <v>47100</v>
       </c>
       <c r="E23" s="3">
-        <v>38100</v>
+        <v>7000</v>
       </c>
       <c r="F23" s="3">
-        <v>37600</v>
+        <v>36300</v>
       </c>
       <c r="G23" s="3">
-        <v>27000</v>
+        <v>38300</v>
       </c>
       <c r="H23" s="3">
-        <v>32500</v>
+        <v>37700</v>
       </c>
       <c r="I23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K23" s="3">
         <v>12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>17400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1400,8 +1491,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25700</v>
+        <v>37500</v>
       </c>
       <c r="E26" s="3">
-        <v>30100</v>
+        <v>3900</v>
       </c>
       <c r="F26" s="3">
-        <v>28300</v>
+        <v>25800</v>
       </c>
       <c r="G26" s="3">
-        <v>19700</v>
+        <v>30200</v>
       </c>
       <c r="H26" s="3">
-        <v>23300</v>
+        <v>28400</v>
       </c>
       <c r="I26" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>25700</v>
+        <v>36800</v>
       </c>
       <c r="E27" s="3">
-        <v>30700</v>
+        <v>4100</v>
       </c>
       <c r="F27" s="3">
-        <v>26400</v>
+        <v>25800</v>
       </c>
       <c r="G27" s="3">
-        <v>18200</v>
+        <v>30900</v>
       </c>
       <c r="H27" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="I27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K27" s="3">
         <v>11900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1691,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1741,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1841,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,87 +1856,99 @@
         <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>25700</v>
+        <v>36800</v>
       </c>
       <c r="E33" s="3">
-        <v>30700</v>
+        <v>4100</v>
       </c>
       <c r="F33" s="3">
-        <v>26400</v>
+        <v>25800</v>
       </c>
       <c r="G33" s="3">
-        <v>18200</v>
+        <v>30900</v>
       </c>
       <c r="H33" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="I33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K33" s="3">
         <v>11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>25700</v>
+        <v>36800</v>
       </c>
       <c r="E35" s="3">
-        <v>30700</v>
+        <v>4100</v>
       </c>
       <c r="F35" s="3">
-        <v>26400</v>
+        <v>25800</v>
       </c>
       <c r="G35" s="3">
-        <v>18200</v>
+        <v>30900</v>
       </c>
       <c r="H35" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="I35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K35" s="3">
         <v>11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2140,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76500</v>
+        <v>29200</v>
       </c>
       <c r="E41" s="3">
-        <v>34700</v>
+        <v>103400</v>
       </c>
       <c r="F41" s="3">
-        <v>39700</v>
+        <v>78700</v>
       </c>
       <c r="G41" s="3">
-        <v>189300</v>
+        <v>34900</v>
       </c>
       <c r="H41" s="3">
-        <v>123600</v>
+        <v>39800</v>
       </c>
       <c r="I41" s="3">
+        <v>190100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K41" s="3">
         <v>47300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>41500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>41800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>61000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>94600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,58 +2230,70 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12300</v>
+        <v>8100</v>
       </c>
       <c r="E43" s="3">
-        <v>14300</v>
+        <v>10700</v>
       </c>
       <c r="F43" s="3">
-        <v>13900</v>
+        <v>12400</v>
       </c>
       <c r="G43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M43" s="3">
         <v>14800</v>
       </c>
-      <c r="H43" s="3">
-        <v>14500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,96 +2336,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>144400</v>
+        <v>232500</v>
       </c>
       <c r="E45" s="3">
-        <v>199300</v>
+        <v>268200</v>
       </c>
       <c r="F45" s="3">
-        <v>216100</v>
+        <v>151500</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>200200</v>
       </c>
       <c r="H45" s="3">
-        <v>33300</v>
+        <v>217000</v>
       </c>
       <c r="I45" s="3">
+        <v>64400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K45" s="3">
         <v>121000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>61200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>67000</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>21100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233200</v>
+        <v>269800</v>
       </c>
       <c r="E46" s="3">
-        <v>248300</v>
+        <v>382300</v>
       </c>
       <c r="F46" s="3">
-        <v>269700</v>
+        <v>237000</v>
       </c>
       <c r="G46" s="3">
-        <v>268300</v>
+        <v>249400</v>
       </c>
       <c r="H46" s="3">
-        <v>171400</v>
+        <v>270800</v>
       </c>
       <c r="I46" s="3">
+        <v>269500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K46" s="3">
         <v>181900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>90200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>123300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>43600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>82200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>116300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>43200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2277,96 +2486,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174400</v>
+        <v>179000</v>
       </c>
       <c r="E48" s="3">
-        <v>175800</v>
+        <v>180600</v>
       </c>
       <c r="F48" s="3">
-        <v>94400</v>
+        <v>178800</v>
       </c>
       <c r="G48" s="3">
-        <v>100100</v>
+        <v>176500</v>
       </c>
       <c r="H48" s="3">
-        <v>103300</v>
+        <v>94800</v>
       </c>
       <c r="I48" s="3">
+        <v>100600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K48" s="3">
         <v>111000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>109600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>109600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>106200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>109700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>82200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>26400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E49" s="3">
         <v>14900</v>
       </c>
-      <c r="E49" s="3">
-        <v>15000</v>
-      </c>
       <c r="F49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G49" s="3">
         <v>15100</v>
       </c>
-      <c r="G49" s="3">
-        <v>14500</v>
-      </c>
       <c r="H49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>11800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2686,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>43300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2786,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>424200</v>
+        <v>544200</v>
       </c>
       <c r="E54" s="3">
-        <v>441300</v>
+        <v>581200</v>
       </c>
       <c r="F54" s="3">
-        <v>380700</v>
+        <v>432500</v>
       </c>
       <c r="G54" s="3">
-        <v>385600</v>
+        <v>443200</v>
       </c>
       <c r="H54" s="3">
-        <v>286700</v>
+        <v>382400</v>
       </c>
       <c r="I54" s="3">
+        <v>387200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>288000</v>
+      </c>
+      <c r="K54" s="3">
         <v>305000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>212800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>245300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>162600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>205500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>220600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>124700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,67 +2880,75 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40300</v>
+        <v>37900</v>
       </c>
       <c r="E57" s="3">
-        <v>24500</v>
+        <v>43600</v>
       </c>
       <c r="F57" s="3">
-        <v>33200</v>
+        <v>41300</v>
       </c>
       <c r="G57" s="3">
-        <v>23600</v>
+        <v>24600</v>
       </c>
       <c r="H57" s="3">
-        <v>21500</v>
+        <v>33300</v>
       </c>
       <c r="I57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K57" s="3">
         <v>20100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>27600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>23900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2694,11 +2961,11 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2709,111 +2976,129 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69900</v>
+        <v>154100</v>
       </c>
       <c r="E59" s="3">
-        <v>129600</v>
+        <v>222300</v>
       </c>
       <c r="F59" s="3">
-        <v>89500</v>
+        <v>75000</v>
       </c>
       <c r="G59" s="3">
-        <v>135000</v>
+        <v>130100</v>
       </c>
       <c r="H59" s="3">
-        <v>62100</v>
+        <v>89900</v>
       </c>
       <c r="I59" s="3">
+        <v>135500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K59" s="3">
         <v>106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>27900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>85800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>54900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>81600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>110500</v>
+        <v>192400</v>
       </c>
       <c r="E60" s="3">
-        <v>154300</v>
+        <v>266300</v>
       </c>
       <c r="F60" s="3">
-        <v>122700</v>
+        <v>116500</v>
       </c>
       <c r="G60" s="3">
-        <v>158600</v>
+        <v>155000</v>
       </c>
       <c r="H60" s="3">
-        <v>83700</v>
+        <v>123200</v>
       </c>
       <c r="I60" s="3">
+        <v>159300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K60" s="3">
         <v>126100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>45200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>103100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>30300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>82500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>105500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>23200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +3126,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,20 +3141,20 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2873,11 +3164,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2885,8 +3176,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3326,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116200</v>
+        <v>199100</v>
       </c>
       <c r="E66" s="3">
-        <v>159100</v>
+        <v>272400</v>
       </c>
       <c r="F66" s="3">
-        <v>129500</v>
+        <v>122200</v>
       </c>
       <c r="G66" s="3">
-        <v>163000</v>
+        <v>159800</v>
       </c>
       <c r="H66" s="3">
-        <v>85700</v>
+        <v>130000</v>
       </c>
       <c r="I66" s="3">
+        <v>163700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K66" s="3">
         <v>126100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>45200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>103100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>82500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>105500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3546,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3596,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>249300</v>
+        <v>291200</v>
       </c>
       <c r="E72" s="3">
-        <v>223500</v>
+        <v>254800</v>
       </c>
       <c r="F72" s="3">
-        <v>192600</v>
+        <v>251100</v>
       </c>
       <c r="G72" s="3">
-        <v>166200</v>
+        <v>224400</v>
       </c>
       <c r="H72" s="3">
-        <v>144700</v>
+        <v>193400</v>
       </c>
       <c r="I72" s="3">
+        <v>166900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K72" s="3">
         <v>121400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>109600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>87900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>79300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>68800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>61300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>65900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3796,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>308000</v>
+        <v>345200</v>
       </c>
       <c r="E76" s="3">
-        <v>282200</v>
+        <v>308700</v>
       </c>
       <c r="F76" s="3">
-        <v>251300</v>
+        <v>310300</v>
       </c>
       <c r="G76" s="3">
-        <v>222600</v>
+        <v>283400</v>
       </c>
       <c r="H76" s="3">
-        <v>201100</v>
+        <v>252400</v>
       </c>
       <c r="I76" s="3">
+        <v>223600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K76" s="3">
         <v>178900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>142200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>132200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>123000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>115100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>101500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>25700</v>
+        <v>36800</v>
       </c>
       <c r="E81" s="3">
-        <v>30700</v>
+        <v>4100</v>
       </c>
       <c r="F81" s="3">
-        <v>26400</v>
+        <v>25800</v>
       </c>
       <c r="G81" s="3">
-        <v>18200</v>
+        <v>30900</v>
       </c>
       <c r="H81" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="I81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K81" s="3">
         <v>11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +4025,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3674,8 +4071,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,22 +4321,28 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
-        <v>72400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+      <c r="G89" s="3">
+        <v>72700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
@@ -3923,11 +4356,11 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3938,8 +4371,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4395,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4000,8 +4441,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,22 +4541,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>50100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-69500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>50300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-69800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -4117,11 +4576,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4132,8 +4591,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4661,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,23 +4811,29 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
@@ -4355,11 +4846,11 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4370,8 +4861,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,8 +4911,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4456,6 +4959,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -746,25 +746,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>97600</v>
+        <v>99600</v>
       </c>
       <c r="E8" s="3">
-        <v>45600</v>
+        <v>46600</v>
       </c>
       <c r="F8" s="3">
-        <v>114000</v>
+        <v>116400</v>
       </c>
       <c r="G8" s="3">
-        <v>112600</v>
+        <v>114900</v>
       </c>
       <c r="H8" s="3">
-        <v>129300</v>
+        <v>132000</v>
       </c>
       <c r="I8" s="3">
-        <v>99700</v>
+        <v>101800</v>
       </c>
       <c r="J8" s="3">
-        <v>101900</v>
+        <v>104000</v>
       </c>
       <c r="K8" s="3">
         <v>76500</v>
@@ -796,25 +796,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49100</v>
+        <v>50200</v>
       </c>
       <c r="E9" s="3">
-        <v>38800</v>
+        <v>39600</v>
       </c>
       <c r="F9" s="3">
-        <v>74000</v>
+        <v>75600</v>
       </c>
       <c r="G9" s="3">
-        <v>76200</v>
+        <v>77800</v>
       </c>
       <c r="H9" s="3">
-        <v>87400</v>
+        <v>89200</v>
       </c>
       <c r="I9" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="J9" s="3">
-        <v>63900</v>
+        <v>65300</v>
       </c>
       <c r="K9" s="3">
         <v>58700</v>
@@ -846,25 +846,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>48400</v>
+        <v>49400</v>
       </c>
       <c r="E10" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F10" s="3">
-        <v>40000</v>
+        <v>40800</v>
       </c>
       <c r="G10" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="H10" s="3">
-        <v>41900</v>
+        <v>42800</v>
       </c>
       <c r="I10" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="J10" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="K10" s="3">
         <v>17700</v>
@@ -1133,25 +1133,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52000</v>
+        <v>53100</v>
       </c>
       <c r="E17" s="3">
-        <v>39700</v>
+        <v>40500</v>
       </c>
       <c r="F17" s="3">
-        <v>79300</v>
+        <v>81000</v>
       </c>
       <c r="G17" s="3">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="H17" s="3">
-        <v>93500</v>
+        <v>95500</v>
       </c>
       <c r="I17" s="3">
-        <v>74500</v>
+        <v>76100</v>
       </c>
       <c r="J17" s="3">
-        <v>70100</v>
+        <v>71500</v>
       </c>
       <c r="K17" s="3">
         <v>64600</v>
@@ -1183,25 +1183,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45600</v>
+        <v>46500</v>
       </c>
       <c r="E18" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F18" s="3">
-        <v>34700</v>
+        <v>35400</v>
       </c>
       <c r="G18" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="H18" s="3">
-        <v>35800</v>
+        <v>36600</v>
       </c>
       <c r="I18" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="J18" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="K18" s="3">
         <v>11800</v>
@@ -1262,7 +1262,7 @@
         <v>1700</v>
       </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="3">
         <v>1900</v>
@@ -1403,25 +1403,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="E23" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F23" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="G23" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="H23" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="I23" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J23" s="3">
-        <v>32600</v>
+        <v>33300</v>
       </c>
       <c r="K23" s="3">
         <v>12800</v>
@@ -1453,25 +1453,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E24" s="3">
         <v>3200</v>
       </c>
       <c r="F24" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G24" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="H24" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I24" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J24" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
@@ -1553,25 +1553,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37500</v>
+        <v>38300</v>
       </c>
       <c r="E26" s="3">
         <v>3900</v>
       </c>
       <c r="F26" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="G26" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="H26" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="I26" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="J26" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K26" s="3">
         <v>11900</v>
@@ -1603,25 +1603,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="E27" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F27" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="G27" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="H27" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="I27" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J27" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K27" s="3">
         <v>11900</v>
@@ -1862,7 +1862,7 @@
         <v>-1700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H32" s="3">
         <v>-1900</v>
@@ -1903,25 +1903,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="E33" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F33" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="G33" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="H33" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="I33" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J33" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K33" s="3">
         <v>11900</v>
@@ -2003,25 +2003,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="E35" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F35" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="G35" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="H35" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="I35" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J35" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K35" s="3">
         <v>11900</v>
@@ -2148,25 +2148,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29200</v>
+        <v>29800</v>
       </c>
       <c r="E41" s="3">
-        <v>103400</v>
+        <v>105600</v>
       </c>
       <c r="F41" s="3">
-        <v>78700</v>
+        <v>80400</v>
       </c>
       <c r="G41" s="3">
-        <v>34900</v>
+        <v>35600</v>
       </c>
       <c r="H41" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="I41" s="3">
-        <v>190100</v>
+        <v>194100</v>
       </c>
       <c r="J41" s="3">
-        <v>124200</v>
+        <v>126800</v>
       </c>
       <c r="K41" s="3">
         <v>47300</v>
@@ -2248,25 +2248,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G43" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="H43" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="I43" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="K43" s="3">
         <v>13600</v>
@@ -2348,25 +2348,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>232500</v>
+        <v>237400</v>
       </c>
       <c r="E45" s="3">
-        <v>268200</v>
+        <v>273900</v>
       </c>
       <c r="F45" s="3">
-        <v>151500</v>
+        <v>154700</v>
       </c>
       <c r="G45" s="3">
-        <v>200200</v>
+        <v>204400</v>
       </c>
       <c r="H45" s="3">
-        <v>217000</v>
+        <v>221600</v>
       </c>
       <c r="I45" s="3">
-        <v>64400</v>
+        <v>65800</v>
       </c>
       <c r="J45" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="K45" s="3">
         <v>121000</v>
@@ -2398,25 +2398,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>269800</v>
+        <v>275500</v>
       </c>
       <c r="E46" s="3">
-        <v>382300</v>
+        <v>390400</v>
       </c>
       <c r="F46" s="3">
-        <v>237000</v>
+        <v>242000</v>
       </c>
       <c r="G46" s="3">
-        <v>249400</v>
+        <v>254700</v>
       </c>
       <c r="H46" s="3">
-        <v>270800</v>
+        <v>276600</v>
       </c>
       <c r="I46" s="3">
-        <v>269500</v>
+        <v>275200</v>
       </c>
       <c r="J46" s="3">
-        <v>172200</v>
+        <v>175800</v>
       </c>
       <c r="K46" s="3">
         <v>181900</v>
@@ -2498,25 +2498,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>179000</v>
+        <v>182800</v>
       </c>
       <c r="E48" s="3">
-        <v>180600</v>
+        <v>184400</v>
       </c>
       <c r="F48" s="3">
-        <v>178800</v>
+        <v>182600</v>
       </c>
       <c r="G48" s="3">
-        <v>176500</v>
+        <v>180300</v>
       </c>
       <c r="H48" s="3">
-        <v>94800</v>
+        <v>96800</v>
       </c>
       <c r="I48" s="3">
-        <v>100600</v>
+        <v>102700</v>
       </c>
       <c r="J48" s="3">
-        <v>103700</v>
+        <v>105900</v>
       </c>
       <c r="K48" s="3">
         <v>111000</v>
@@ -2548,25 +2548,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="E49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I49" s="3">
         <v>14900</v>
       </c>
-      <c r="F49" s="3">
-        <v>14900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>15200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14600</v>
-      </c>
       <c r="J49" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K49" s="3">
         <v>12100</v>
@@ -2698,10 +2698,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80600</v>
+        <v>82300</v>
       </c>
       <c r="E52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
@@ -2710,10 +2710,10 @@
         <v>2200</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2798,25 +2798,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>544200</v>
+        <v>555700</v>
       </c>
       <c r="E54" s="3">
-        <v>581200</v>
+        <v>593400</v>
       </c>
       <c r="F54" s="3">
-        <v>432500</v>
+        <v>441600</v>
       </c>
       <c r="G54" s="3">
-        <v>443200</v>
+        <v>452600</v>
       </c>
       <c r="H54" s="3">
-        <v>382400</v>
+        <v>390500</v>
       </c>
       <c r="I54" s="3">
-        <v>387200</v>
+        <v>395400</v>
       </c>
       <c r="J54" s="3">
-        <v>288000</v>
+        <v>294100</v>
       </c>
       <c r="K54" s="3">
         <v>305000</v>
@@ -2888,25 +2888,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="E57" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="F57" s="3">
-        <v>41300</v>
+        <v>42200</v>
       </c>
       <c r="G57" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="H57" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="I57" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="J57" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="K57" s="3">
         <v>20100</v>
@@ -2988,25 +2988,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154100</v>
+        <v>157300</v>
       </c>
       <c r="E59" s="3">
-        <v>222300</v>
+        <v>227000</v>
       </c>
       <c r="F59" s="3">
-        <v>75000</v>
+        <v>76600</v>
       </c>
       <c r="G59" s="3">
-        <v>130100</v>
+        <v>132900</v>
       </c>
       <c r="H59" s="3">
-        <v>89900</v>
+        <v>91800</v>
       </c>
       <c r="I59" s="3">
-        <v>135500</v>
+        <v>138400</v>
       </c>
       <c r="J59" s="3">
-        <v>62400</v>
+        <v>63700</v>
       </c>
       <c r="K59" s="3">
         <v>106000</v>
@@ -3038,25 +3038,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192400</v>
+        <v>196500</v>
       </c>
       <c r="E60" s="3">
-        <v>266300</v>
+        <v>271900</v>
       </c>
       <c r="F60" s="3">
-        <v>116500</v>
+        <v>119000</v>
       </c>
       <c r="G60" s="3">
-        <v>155000</v>
+        <v>158300</v>
       </c>
       <c r="H60" s="3">
-        <v>123200</v>
+        <v>125800</v>
       </c>
       <c r="I60" s="3">
-        <v>159300</v>
+        <v>162600</v>
       </c>
       <c r="J60" s="3">
-        <v>84000</v>
+        <v>85800</v>
       </c>
       <c r="K60" s="3">
         <v>126100</v>
@@ -3141,7 +3141,7 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3153,7 +3153,7 @@
         <v>1100</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3338,25 +3338,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>199100</v>
+        <v>203300</v>
       </c>
       <c r="E66" s="3">
-        <v>272400</v>
+        <v>278200</v>
       </c>
       <c r="F66" s="3">
-        <v>122200</v>
+        <v>124800</v>
       </c>
       <c r="G66" s="3">
-        <v>159800</v>
+        <v>163200</v>
       </c>
       <c r="H66" s="3">
-        <v>130000</v>
+        <v>132800</v>
       </c>
       <c r="I66" s="3">
-        <v>163700</v>
+        <v>167200</v>
       </c>
       <c r="J66" s="3">
-        <v>86000</v>
+        <v>87900</v>
       </c>
       <c r="K66" s="3">
         <v>126100</v>
@@ -3608,25 +3608,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>291200</v>
+        <v>297400</v>
       </c>
       <c r="E72" s="3">
-        <v>254800</v>
+        <v>260200</v>
       </c>
       <c r="F72" s="3">
-        <v>251100</v>
+        <v>256500</v>
       </c>
       <c r="G72" s="3">
-        <v>224400</v>
+        <v>229200</v>
       </c>
       <c r="H72" s="3">
-        <v>193400</v>
+        <v>197500</v>
       </c>
       <c r="I72" s="3">
-        <v>166900</v>
+        <v>170400</v>
       </c>
       <c r="J72" s="3">
-        <v>145300</v>
+        <v>148400</v>
       </c>
       <c r="K72" s="3">
         <v>121400</v>
@@ -3808,25 +3808,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>345200</v>
+        <v>352500</v>
       </c>
       <c r="E76" s="3">
-        <v>308700</v>
+        <v>315300</v>
       </c>
       <c r="F76" s="3">
-        <v>310300</v>
+        <v>316800</v>
       </c>
       <c r="G76" s="3">
-        <v>283400</v>
+        <v>289400</v>
       </c>
       <c r="H76" s="3">
-        <v>252400</v>
+        <v>257700</v>
       </c>
       <c r="I76" s="3">
-        <v>223600</v>
+        <v>228300</v>
       </c>
       <c r="J76" s="3">
-        <v>201900</v>
+        <v>206200</v>
       </c>
       <c r="K76" s="3">
         <v>178900</v>
@@ -3963,25 +3963,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="E81" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F81" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="G81" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="H81" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="I81" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J81" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="K81" s="3">
         <v>11900</v>
@@ -4339,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="G89" s="3">
-        <v>72700</v>
+        <v>74300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
@@ -4559,10 +4559,10 @@
         <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>50300</v>
+        <v>51400</v>
       </c>
       <c r="G94" s="3">
-        <v>-69800</v>
+        <v>-71300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -4832,7 +4832,7 @@
         <v>-1500</v>
       </c>
       <c r="G100" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>99600</v>
+        <v>67000</v>
       </c>
       <c r="E8" s="3">
-        <v>46600</v>
+        <v>98300</v>
       </c>
       <c r="F8" s="3">
-        <v>116400</v>
+        <v>46000</v>
       </c>
       <c r="G8" s="3">
         <v>114900</v>
       </c>
       <c r="H8" s="3">
-        <v>132000</v>
+        <v>113400</v>
       </c>
       <c r="I8" s="3">
-        <v>101800</v>
+        <v>130300</v>
       </c>
       <c r="J8" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K8" s="3">
         <v>104000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>93900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50200</v>
+        <v>43700</v>
       </c>
       <c r="E9" s="3">
-        <v>39600</v>
+        <v>49500</v>
       </c>
       <c r="F9" s="3">
-        <v>75600</v>
+        <v>39100</v>
       </c>
       <c r="G9" s="3">
-        <v>77800</v>
+        <v>74600</v>
       </c>
       <c r="H9" s="3">
-        <v>89200</v>
+        <v>76800</v>
       </c>
       <c r="I9" s="3">
-        <v>71000</v>
+        <v>88100</v>
       </c>
       <c r="J9" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K9" s="3">
         <v>65300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49400</v>
+        <v>23200</v>
       </c>
       <c r="E10" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F10" s="3">
         <v>6900</v>
       </c>
-      <c r="F10" s="3">
-        <v>40800</v>
-      </c>
       <c r="G10" s="3">
-        <v>37100</v>
+        <v>40300</v>
       </c>
       <c r="H10" s="3">
-        <v>42800</v>
+        <v>36600</v>
       </c>
       <c r="I10" s="3">
-        <v>30800</v>
+        <v>42200</v>
       </c>
       <c r="J10" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K10" s="3">
         <v>38700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,47 +1041,50 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>53100</v>
+        <v>48400</v>
       </c>
       <c r="E17" s="3">
-        <v>40500</v>
+        <v>52400</v>
       </c>
       <c r="F17" s="3">
-        <v>81000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="3">
-        <v>77400</v>
+        <v>79900</v>
       </c>
       <c r="H17" s="3">
-        <v>95500</v>
+        <v>76400</v>
       </c>
       <c r="I17" s="3">
-        <v>76100</v>
+        <v>94200</v>
       </c>
       <c r="J17" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K17" s="3">
         <v>71500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>80400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46500</v>
+        <v>18600</v>
       </c>
       <c r="E18" s="3">
-        <v>6000</v>
+        <v>45900</v>
       </c>
       <c r="F18" s="3">
-        <v>35400</v>
+        <v>5900</v>
       </c>
       <c r="G18" s="3">
-        <v>37600</v>
+        <v>34900</v>
       </c>
       <c r="H18" s="3">
-        <v>36600</v>
+        <v>37100</v>
       </c>
       <c r="I18" s="3">
-        <v>25800</v>
+        <v>36100</v>
       </c>
       <c r="J18" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K18" s="3">
         <v>32500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,58 +1280,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
-        <v>1600</v>
-      </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
         <v>1900</v>
       </c>
       <c r="J20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,14 +1378,17 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,93 +1437,99 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48100</v>
+        <v>20100</v>
       </c>
       <c r="E23" s="3">
-        <v>7200</v>
+        <v>47500</v>
       </c>
       <c r="F23" s="3">
-        <v>37100</v>
+        <v>7100</v>
       </c>
       <c r="G23" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="H23" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="I23" s="3">
-        <v>27700</v>
+        <v>38000</v>
       </c>
       <c r="J23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9800</v>
+        <v>4600</v>
       </c>
       <c r="E24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
-        <v>10700</v>
-      </c>
       <c r="G24" s="3">
-        <v>8300</v>
+        <v>10600</v>
       </c>
       <c r="H24" s="3">
-        <v>9500</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3">
-        <v>7500</v>
+        <v>9300</v>
       </c>
       <c r="J24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K24" s="3">
         <v>9400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1497,8 +1543,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38300</v>
+        <v>15500</v>
       </c>
       <c r="E26" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
-        <v>26400</v>
-      </c>
       <c r="G26" s="3">
-        <v>30800</v>
+        <v>26000</v>
       </c>
       <c r="H26" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="I26" s="3">
-        <v>20200</v>
+        <v>28700</v>
       </c>
       <c r="J26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K26" s="3">
         <v>23900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37600</v>
+        <v>15400</v>
       </c>
       <c r="E27" s="3">
-        <v>4200</v>
+        <v>37100</v>
       </c>
       <c r="F27" s="3">
-        <v>26300</v>
+        <v>4100</v>
       </c>
       <c r="G27" s="3">
-        <v>31500</v>
+        <v>26000</v>
       </c>
       <c r="H27" s="3">
-        <v>27100</v>
+        <v>31100</v>
       </c>
       <c r="I27" s="3">
-        <v>18700</v>
+        <v>26700</v>
       </c>
       <c r="J27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K27" s="3">
         <v>23900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1914,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
         <v>-1900</v>
       </c>
       <c r="J32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
       </c>
       <c r="P32" s="3">
         <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37600</v>
+        <v>15400</v>
       </c>
       <c r="E33" s="3">
-        <v>4200</v>
+        <v>37100</v>
       </c>
       <c r="F33" s="3">
-        <v>26300</v>
+        <v>4100</v>
       </c>
       <c r="G33" s="3">
-        <v>31500</v>
+        <v>26000</v>
       </c>
       <c r="H33" s="3">
-        <v>27100</v>
+        <v>31100</v>
       </c>
       <c r="I33" s="3">
-        <v>18700</v>
+        <v>26700</v>
       </c>
       <c r="J33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K33" s="3">
         <v>23900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37600</v>
+        <v>15400</v>
       </c>
       <c r="E35" s="3">
-        <v>4200</v>
+        <v>37100</v>
       </c>
       <c r="F35" s="3">
-        <v>26300</v>
+        <v>4100</v>
       </c>
       <c r="G35" s="3">
-        <v>31500</v>
+        <v>26000</v>
       </c>
       <c r="H35" s="3">
-        <v>27100</v>
+        <v>31100</v>
       </c>
       <c r="I35" s="3">
-        <v>18700</v>
+        <v>26700</v>
       </c>
       <c r="J35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K35" s="3">
         <v>23900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,8 +2228,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2151,49 +2238,52 @@
         <v>29800</v>
       </c>
       <c r="E41" s="3">
-        <v>105600</v>
+        <v>29500</v>
       </c>
       <c r="F41" s="3">
-        <v>80400</v>
+        <v>104200</v>
       </c>
       <c r="G41" s="3">
-        <v>35600</v>
+        <v>79300</v>
       </c>
       <c r="H41" s="3">
-        <v>40700</v>
+        <v>35100</v>
       </c>
       <c r="I41" s="3">
-        <v>194100</v>
+        <v>40100</v>
       </c>
       <c r="J41" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K41" s="3">
         <v>126800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,64 +2326,70 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E43" s="3">
-        <v>10900</v>
+        <v>8200</v>
       </c>
       <c r="F43" s="3">
-        <v>12700</v>
+        <v>10800</v>
       </c>
       <c r="G43" s="3">
-        <v>14700</v>
+        <v>12500</v>
       </c>
       <c r="H43" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="I43" s="3">
-        <v>15200</v>
+        <v>14100</v>
       </c>
       <c r="J43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K43" s="3">
         <v>14800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,108 +2438,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>237400</v>
+        <v>213600</v>
       </c>
       <c r="E45" s="3">
-        <v>273900</v>
+        <v>234300</v>
       </c>
       <c r="F45" s="3">
-        <v>154700</v>
+        <v>270300</v>
       </c>
       <c r="G45" s="3">
-        <v>204400</v>
+        <v>152700</v>
       </c>
       <c r="H45" s="3">
-        <v>221600</v>
+        <v>201700</v>
       </c>
       <c r="I45" s="3">
-        <v>65800</v>
+        <v>218700</v>
       </c>
       <c r="J45" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K45" s="3">
         <v>34200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>121000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275500</v>
+        <v>251900</v>
       </c>
       <c r="E46" s="3">
-        <v>390400</v>
+        <v>272000</v>
       </c>
       <c r="F46" s="3">
-        <v>242000</v>
+        <v>385300</v>
       </c>
       <c r="G46" s="3">
-        <v>254700</v>
+        <v>238800</v>
       </c>
       <c r="H46" s="3">
-        <v>276600</v>
+        <v>251400</v>
       </c>
       <c r="I46" s="3">
-        <v>275200</v>
+        <v>273000</v>
       </c>
       <c r="J46" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K46" s="3">
         <v>175800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>181900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>90200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>123300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>116300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,108 +2597,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>182800</v>
+        <v>179400</v>
       </c>
       <c r="E48" s="3">
-        <v>184400</v>
+        <v>180400</v>
       </c>
       <c r="F48" s="3">
-        <v>182600</v>
+        <v>182000</v>
       </c>
       <c r="G48" s="3">
-        <v>180300</v>
+        <v>180200</v>
       </c>
       <c r="H48" s="3">
-        <v>96800</v>
+        <v>177900</v>
       </c>
       <c r="I48" s="3">
-        <v>102700</v>
+        <v>95600</v>
       </c>
       <c r="J48" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K48" s="3">
         <v>105900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>109600</v>
       </c>
       <c r="M48" s="3">
         <v>109600</v>
       </c>
       <c r="N48" s="3">
+        <v>109600</v>
+      </c>
+      <c r="O48" s="3">
         <v>106200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>109700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G49" s="3">
         <v>15100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>15200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>15300</v>
       </c>
-      <c r="G49" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14900</v>
-      </c>
       <c r="J49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K49" s="3">
         <v>12300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12100</v>
       </c>
       <c r="L49" s="3">
         <v>12100</v>
       </c>
       <c r="M49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N49" s="3">
         <v>11600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>12000</v>
       </c>
       <c r="P49" s="3">
         <v>12000</v>
       </c>
       <c r="Q49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R49" s="3">
         <v>11800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2809,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82300</v>
+        <v>82200</v>
       </c>
       <c r="E52" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
-        <v>1600</v>
-      </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>555700</v>
+        <v>528300</v>
       </c>
       <c r="E54" s="3">
-        <v>593400</v>
+        <v>548500</v>
       </c>
       <c r="F54" s="3">
-        <v>441600</v>
+        <v>585700</v>
       </c>
       <c r="G54" s="3">
-        <v>452600</v>
+        <v>435900</v>
       </c>
       <c r="H54" s="3">
-        <v>390500</v>
+        <v>446700</v>
       </c>
       <c r="I54" s="3">
-        <v>395400</v>
+        <v>385400</v>
       </c>
       <c r="J54" s="3">
+        <v>390300</v>
+      </c>
+      <c r="K54" s="3">
         <v>294100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>305000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>212800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>245300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>162600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>205500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>124700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,76 +3012,80 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38700</v>
+        <v>35900</v>
       </c>
       <c r="E57" s="3">
-        <v>44500</v>
+        <v>38200</v>
       </c>
       <c r="F57" s="3">
-        <v>42200</v>
+        <v>43900</v>
       </c>
       <c r="G57" s="3">
-        <v>25100</v>
+        <v>41600</v>
       </c>
       <c r="H57" s="3">
-        <v>34000</v>
+        <v>24800</v>
       </c>
       <c r="I57" s="3">
-        <v>24200</v>
+        <v>33600</v>
       </c>
       <c r="J57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K57" s="3">
         <v>22100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>17300</v>
       </c>
       <c r="M57" s="3">
         <v>17300</v>
       </c>
       <c r="N57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>23900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,8 +3101,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2982,126 +3116,135 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157300</v>
+        <v>120500</v>
       </c>
       <c r="E59" s="3">
-        <v>227000</v>
+        <v>155300</v>
       </c>
       <c r="F59" s="3">
-        <v>76600</v>
+        <v>224000</v>
       </c>
       <c r="G59" s="3">
-        <v>132900</v>
+        <v>75600</v>
       </c>
       <c r="H59" s="3">
-        <v>91800</v>
+        <v>131200</v>
       </c>
       <c r="I59" s="3">
-        <v>138400</v>
+        <v>90600</v>
       </c>
       <c r="J59" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K59" s="3">
         <v>63700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>196500</v>
+        <v>157100</v>
       </c>
       <c r="E60" s="3">
-        <v>271900</v>
+        <v>193900</v>
       </c>
       <c r="F60" s="3">
-        <v>119000</v>
+        <v>268400</v>
       </c>
       <c r="G60" s="3">
-        <v>158300</v>
+        <v>117500</v>
       </c>
       <c r="H60" s="3">
-        <v>125800</v>
+        <v>156200</v>
       </c>
       <c r="I60" s="3">
-        <v>162600</v>
+        <v>124200</v>
       </c>
       <c r="J60" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K60" s="3">
         <v>85800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>103100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>105500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3132,32 +3275,35 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,8 +3316,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3487,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>203300</v>
+        <v>165000</v>
       </c>
       <c r="E66" s="3">
-        <v>278200</v>
+        <v>200600</v>
       </c>
       <c r="F66" s="3">
-        <v>124800</v>
+        <v>274600</v>
       </c>
       <c r="G66" s="3">
-        <v>163200</v>
+        <v>123200</v>
       </c>
       <c r="H66" s="3">
-        <v>132800</v>
+        <v>161100</v>
       </c>
       <c r="I66" s="3">
-        <v>167200</v>
+        <v>131100</v>
       </c>
       <c r="J66" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K66" s="3">
         <v>87900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>105500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>297400</v>
+        <v>309000</v>
       </c>
       <c r="E72" s="3">
-        <v>260200</v>
+        <v>293500</v>
       </c>
       <c r="F72" s="3">
-        <v>256500</v>
+        <v>256800</v>
       </c>
       <c r="G72" s="3">
-        <v>229200</v>
+        <v>253100</v>
       </c>
       <c r="H72" s="3">
-        <v>197500</v>
+        <v>226200</v>
       </c>
       <c r="I72" s="3">
-        <v>170400</v>
+        <v>194900</v>
       </c>
       <c r="J72" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K72" s="3">
         <v>148400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>121400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>109600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>87900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>68800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>65900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>352500</v>
+        <v>363300</v>
       </c>
       <c r="E76" s="3">
-        <v>315300</v>
+        <v>347900</v>
       </c>
       <c r="F76" s="3">
-        <v>316800</v>
+        <v>311200</v>
       </c>
       <c r="G76" s="3">
-        <v>289400</v>
+        <v>312700</v>
       </c>
       <c r="H76" s="3">
-        <v>257700</v>
+        <v>285600</v>
       </c>
       <c r="I76" s="3">
-        <v>228300</v>
+        <v>254300</v>
       </c>
       <c r="J76" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K76" s="3">
         <v>206200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>142200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>115100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37600</v>
+        <v>15400</v>
       </c>
       <c r="E81" s="3">
-        <v>4200</v>
+        <v>37100</v>
       </c>
       <c r="F81" s="3">
-        <v>26300</v>
+        <v>4100</v>
       </c>
       <c r="G81" s="3">
-        <v>31500</v>
+        <v>26000</v>
       </c>
       <c r="H81" s="3">
-        <v>27100</v>
+        <v>31100</v>
       </c>
       <c r="I81" s="3">
-        <v>18700</v>
+        <v>26700</v>
       </c>
       <c r="J81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K81" s="3">
         <v>23900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,8 +4541,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4338,14 +4555,14 @@
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7000</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>74300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+        <v>-6900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>73300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -4362,8 +4579,8 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4377,8 +4594,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,8 +4774,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4558,14 +4788,14 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>51400</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>-71300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+        <v>50700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-70400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -4582,8 +4812,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4597,8 +4827,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,8 +5060,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,14 +5074,14 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+      <c r="H100" s="3">
+        <v>-8000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -4852,8 +5098,8 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4867,8 +5113,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,8 +5166,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4965,6 +5217,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>HLG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67000</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>98300</v>
+        <v>68100</v>
       </c>
       <c r="F8" s="3">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="3">
-        <v>114900</v>
+        <v>46700</v>
       </c>
       <c r="H8" s="3">
-        <v>113400</v>
+        <v>45500</v>
       </c>
       <c r="I8" s="3">
-        <v>130300</v>
+        <v>115300</v>
       </c>
       <c r="J8" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K8" s="3">
         <v>100500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>73900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>93900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43700</v>
+        <v>-20500</v>
       </c>
       <c r="E9" s="3">
-        <v>49500</v>
+        <v>44500</v>
       </c>
       <c r="F9" s="3">
-        <v>39100</v>
+        <v>50300</v>
       </c>
       <c r="G9" s="3">
-        <v>74600</v>
+        <v>39800</v>
       </c>
       <c r="H9" s="3">
-        <v>76800</v>
+        <v>12700</v>
       </c>
       <c r="I9" s="3">
-        <v>88100</v>
+        <v>78100</v>
       </c>
       <c r="J9" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K9" s="3">
         <v>70100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23200</v>
+        <v>21100</v>
       </c>
       <c r="E10" s="3">
-        <v>48800</v>
+        <v>23600</v>
       </c>
       <c r="F10" s="3">
-        <v>6900</v>
+        <v>49600</v>
       </c>
       <c r="G10" s="3">
-        <v>40300</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="3">
-        <v>36600</v>
+        <v>32800</v>
       </c>
       <c r="I10" s="3">
-        <v>42200</v>
+        <v>37200</v>
       </c>
       <c r="J10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K10" s="3">
         <v>30400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1047,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,47 +1064,50 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48400</v>
+        <v>-23700</v>
       </c>
       <c r="E17" s="3">
-        <v>52400</v>
+        <v>49200</v>
       </c>
       <c r="F17" s="3">
-        <v>40000</v>
+        <v>53300</v>
       </c>
       <c r="G17" s="3">
-        <v>79900</v>
+        <v>40700</v>
       </c>
       <c r="H17" s="3">
-        <v>76400</v>
+        <v>12000</v>
       </c>
       <c r="I17" s="3">
-        <v>94200</v>
+        <v>77600</v>
       </c>
       <c r="J17" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K17" s="3">
         <v>75100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>80400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18600</v>
+        <v>24300</v>
       </c>
       <c r="E18" s="3">
-        <v>45900</v>
+        <v>18900</v>
       </c>
       <c r="F18" s="3">
-        <v>5900</v>
+        <v>46700</v>
       </c>
       <c r="G18" s="3">
-        <v>34900</v>
+        <v>6000</v>
       </c>
       <c r="H18" s="3">
-        <v>37100</v>
+        <v>33600</v>
       </c>
       <c r="I18" s="3">
-        <v>36100</v>
+        <v>37700</v>
       </c>
       <c r="J18" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K18" s="3">
         <v>25400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,61 +1314,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>1700</v>
-      </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
       </c>
       <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
         <v>800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,14 +1418,17 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,99 +1480,105 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20100</v>
+        <v>25400</v>
       </c>
       <c r="E23" s="3">
-        <v>47500</v>
+        <v>20400</v>
       </c>
       <c r="F23" s="3">
-        <v>7100</v>
+        <v>48300</v>
       </c>
       <c r="G23" s="3">
-        <v>36600</v>
+        <v>7200</v>
       </c>
       <c r="H23" s="3">
-        <v>38600</v>
+        <v>34000</v>
       </c>
       <c r="I23" s="3">
-        <v>38000</v>
+        <v>39300</v>
       </c>
       <c r="J23" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K23" s="3">
         <v>27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
-        <v>9700</v>
-      </c>
       <c r="F24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
-        <v>10600</v>
-      </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
-        <v>9300</v>
+        <v>8300</v>
       </c>
       <c r="J24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K24" s="3">
         <v>7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1546,8 +1592,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15500</v>
+        <v>17300</v>
       </c>
       <c r="E26" s="3">
-        <v>37800</v>
+        <v>15800</v>
       </c>
       <c r="F26" s="3">
-        <v>3900</v>
+        <v>38400</v>
       </c>
       <c r="G26" s="3">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="H26" s="3">
-        <v>30400</v>
+        <v>23200</v>
       </c>
       <c r="I26" s="3">
-        <v>28700</v>
+        <v>30900</v>
       </c>
       <c r="J26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15400</v>
+        <v>18000</v>
       </c>
       <c r="E27" s="3">
-        <v>37100</v>
+        <v>15600</v>
       </c>
       <c r="F27" s="3">
-        <v>4100</v>
+        <v>37700</v>
       </c>
       <c r="G27" s="3">
-        <v>26000</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
-        <v>31100</v>
+        <v>23200</v>
       </c>
       <c r="I27" s="3">
-        <v>26700</v>
+        <v>31600</v>
       </c>
       <c r="J27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K27" s="3">
         <v>18500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,31 +1816,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-38800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+        <v>3800</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1984,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
       </c>
       <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15400</v>
+        <v>-20800</v>
       </c>
       <c r="E33" s="3">
-        <v>37100</v>
+        <v>15600</v>
       </c>
       <c r="F33" s="3">
-        <v>4100</v>
+        <v>37700</v>
       </c>
       <c r="G33" s="3">
-        <v>26000</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
-        <v>31100</v>
+        <v>27000</v>
       </c>
       <c r="I33" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J33" s="3">
         <v>26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15400</v>
+        <v>-20800</v>
       </c>
       <c r="E35" s="3">
-        <v>37100</v>
+        <v>15600</v>
       </c>
       <c r="F35" s="3">
-        <v>4100</v>
+        <v>37700</v>
       </c>
       <c r="G35" s="3">
-        <v>26000</v>
+        <v>4200</v>
       </c>
       <c r="H35" s="3">
-        <v>31100</v>
+        <v>27000</v>
       </c>
       <c r="I35" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J35" s="3">
         <v>26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,61 +2315,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29800</v>
+        <v>43700</v>
       </c>
       <c r="E41" s="3">
-        <v>29500</v>
+        <v>30300</v>
       </c>
       <c r="F41" s="3">
-        <v>104200</v>
+        <v>30000</v>
       </c>
       <c r="G41" s="3">
-        <v>79300</v>
+        <v>106000</v>
       </c>
       <c r="H41" s="3">
-        <v>35100</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3">
-        <v>40100</v>
+        <v>35700</v>
       </c>
       <c r="J41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K41" s="3">
         <v>191600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>33900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,67 +2419,73 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F43" s="3">
-        <v>10800</v>
+        <v>8300</v>
       </c>
       <c r="G43" s="3">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="H43" s="3">
-        <v>14500</v>
+        <v>12800</v>
       </c>
       <c r="I43" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="J43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K43" s="3">
         <v>15000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2441,114 +2537,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>213600</v>
+        <v>80800</v>
       </c>
       <c r="E45" s="3">
-        <v>234300</v>
+        <v>217200</v>
       </c>
       <c r="F45" s="3">
-        <v>270300</v>
+        <v>238200</v>
       </c>
       <c r="G45" s="3">
-        <v>152700</v>
+        <v>274800</v>
       </c>
       <c r="H45" s="3">
-        <v>201700</v>
+        <v>155200</v>
       </c>
       <c r="I45" s="3">
-        <v>218700</v>
+        <v>205100</v>
       </c>
       <c r="J45" s="3">
+        <v>222400</v>
+      </c>
+      <c r="K45" s="3">
         <v>64900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>121000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>67000</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>251900</v>
+        <v>133000</v>
       </c>
       <c r="E46" s="3">
-        <v>272000</v>
+        <v>256100</v>
       </c>
       <c r="F46" s="3">
-        <v>385300</v>
+        <v>276500</v>
       </c>
       <c r="G46" s="3">
-        <v>238800</v>
+        <v>391800</v>
       </c>
       <c r="H46" s="3">
-        <v>251400</v>
+        <v>243000</v>
       </c>
       <c r="I46" s="3">
-        <v>273000</v>
+        <v>255600</v>
       </c>
       <c r="J46" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K46" s="3">
         <v>271600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>90200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>82200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>116300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,114 +2705,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>179400</v>
+        <v>151600</v>
       </c>
       <c r="E48" s="3">
-        <v>180400</v>
+        <v>182400</v>
       </c>
       <c r="F48" s="3">
-        <v>182000</v>
+        <v>183400</v>
       </c>
       <c r="G48" s="3">
-        <v>180200</v>
+        <v>185100</v>
       </c>
       <c r="H48" s="3">
-        <v>177900</v>
+        <v>184300</v>
       </c>
       <c r="I48" s="3">
-        <v>95600</v>
+        <v>180900</v>
       </c>
       <c r="J48" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K48" s="3">
         <v>101400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>105900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>109600</v>
       </c>
       <c r="N48" s="3">
         <v>109600</v>
       </c>
       <c r="O48" s="3">
+        <v>109600</v>
+      </c>
+      <c r="P48" s="3">
         <v>106200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>109700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14800</v>
+        <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="G49" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H49" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="I49" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="J49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K49" s="3">
         <v>14700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12100</v>
       </c>
       <c r="M49" s="3">
         <v>12100</v>
       </c>
       <c r="N49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O49" s="3">
         <v>11600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11500</v>
-      </c>
-      <c r="P49" s="3">
-        <v>12000</v>
       </c>
       <c r="Q49" s="3">
         <v>12000</v>
       </c>
       <c r="R49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S49" s="3">
         <v>11800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,61 +2929,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82200</v>
+        <v>224500</v>
       </c>
       <c r="E52" s="3">
-        <v>81300</v>
+        <v>83600</v>
       </c>
       <c r="F52" s="3">
+        <v>82600</v>
+      </c>
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
-        <v>1800</v>
-      </c>
       <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
-        <v>1500</v>
-      </c>
       <c r="J52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3041,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>528300</v>
+        <v>512100</v>
       </c>
       <c r="E54" s="3">
-        <v>548500</v>
+        <v>537200</v>
       </c>
       <c r="F54" s="3">
-        <v>585700</v>
+        <v>557700</v>
       </c>
       <c r="G54" s="3">
-        <v>435900</v>
+        <v>595500</v>
       </c>
       <c r="H54" s="3">
-        <v>446700</v>
+        <v>444500</v>
       </c>
       <c r="I54" s="3">
-        <v>385400</v>
+        <v>454200</v>
       </c>
       <c r="J54" s="3">
+        <v>391900</v>
+      </c>
+      <c r="K54" s="3">
         <v>390300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>294100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>305000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>212800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>245300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>162600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>205500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>124700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>134500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,82 +3143,86 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35900</v>
+        <v>59000</v>
       </c>
       <c r="E57" s="3">
-        <v>38200</v>
+        <v>36500</v>
       </c>
       <c r="F57" s="3">
-        <v>43900</v>
+        <v>38900</v>
       </c>
       <c r="G57" s="3">
-        <v>41600</v>
+        <v>44700</v>
       </c>
       <c r="H57" s="3">
-        <v>24800</v>
+        <v>42600</v>
       </c>
       <c r="I57" s="3">
-        <v>33600</v>
+        <v>25200</v>
       </c>
       <c r="J57" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K57" s="3">
         <v>23900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>17300</v>
       </c>
       <c r="N57" s="3">
         <v>17300</v>
       </c>
       <c r="O57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3104,8 +3238,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3119,135 +3253,144 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120500</v>
+        <v>99700</v>
       </c>
       <c r="E59" s="3">
-        <v>155300</v>
+        <v>122600</v>
       </c>
       <c r="F59" s="3">
-        <v>224000</v>
+        <v>157900</v>
       </c>
       <c r="G59" s="3">
-        <v>75600</v>
+        <v>227800</v>
       </c>
       <c r="H59" s="3">
-        <v>131200</v>
+        <v>78500</v>
       </c>
       <c r="I59" s="3">
-        <v>90600</v>
+        <v>133400</v>
       </c>
       <c r="J59" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K59" s="3">
         <v>136600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>157100</v>
+        <v>159500</v>
       </c>
       <c r="E60" s="3">
-        <v>193900</v>
+        <v>159700</v>
       </c>
       <c r="F60" s="3">
-        <v>268400</v>
+        <v>197200</v>
       </c>
       <c r="G60" s="3">
-        <v>117500</v>
+        <v>272900</v>
       </c>
       <c r="H60" s="3">
-        <v>156200</v>
+        <v>121400</v>
       </c>
       <c r="I60" s="3">
-        <v>124200</v>
+        <v>158800</v>
       </c>
       <c r="J60" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K60" s="3">
         <v>160500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>103100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>105500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E61" s="3">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="F61" s="3">
         <v>3500</v>
       </c>
       <c r="G61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H61" s="3">
         <v>2900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3278,35 +3421,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
       <c r="G62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3319,8 +3465,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3645,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>167800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>204000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>279200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>127200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>163800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K66" s="3">
         <v>165000</v>
       </c>
-      <c r="E66" s="3">
-        <v>200600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>274600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>123200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>161100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>131100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>165000</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>105500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +3947,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>309000</v>
+        <v>292400</v>
       </c>
       <c r="E72" s="3">
-        <v>293500</v>
+        <v>314100</v>
       </c>
       <c r="F72" s="3">
-        <v>256800</v>
+        <v>298400</v>
       </c>
       <c r="G72" s="3">
-        <v>253100</v>
+        <v>261100</v>
       </c>
       <c r="H72" s="3">
-        <v>226200</v>
+        <v>256600</v>
       </c>
       <c r="I72" s="3">
-        <v>194900</v>
+        <v>230000</v>
       </c>
       <c r="J72" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K72" s="3">
         <v>168200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>148400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>121400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>109600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>87900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>79300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>68800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>65900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4171,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363300</v>
+        <v>344500</v>
       </c>
       <c r="E76" s="3">
-        <v>347900</v>
+        <v>369400</v>
       </c>
       <c r="F76" s="3">
-        <v>311200</v>
+        <v>353700</v>
       </c>
       <c r="G76" s="3">
-        <v>312700</v>
+        <v>316400</v>
       </c>
       <c r="H76" s="3">
-        <v>285600</v>
+        <v>317300</v>
       </c>
       <c r="I76" s="3">
-        <v>254300</v>
+        <v>290400</v>
       </c>
       <c r="J76" s="3">
+        <v>258600</v>
+      </c>
+      <c r="K76" s="3">
         <v>225300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>206200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>178900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>142200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15400</v>
+        <v>-20800</v>
       </c>
       <c r="E81" s="3">
-        <v>37100</v>
+        <v>15600</v>
       </c>
       <c r="F81" s="3">
-        <v>4100</v>
+        <v>37700</v>
       </c>
       <c r="G81" s="3">
-        <v>26000</v>
+        <v>4200</v>
       </c>
       <c r="H81" s="3">
-        <v>31100</v>
+        <v>27000</v>
       </c>
       <c r="I81" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J81" s="3">
         <v>26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4424,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4279,8 +4478,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,8 +4758,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4558,14 +4775,14 @@
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
-        <v>-6900</v>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>73300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>69600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>74500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -4582,8 +4799,8 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4597,8 +4814,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +4838,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4671,8 +4892,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,8 +5004,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4791,14 +5021,14 @@
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>50700</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-70400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+        <v>-20000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-71600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -4815,8 +5045,8 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4830,8 +5060,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,8 +5306,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5077,14 +5323,14 @@
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1500</v>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>-7900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-8100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -5101,8 +5347,8 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5116,8 +5362,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,8 +5418,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5220,6 +5472,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -757,22 +757,22 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>68100</v>
+        <v>68600</v>
       </c>
       <c r="F8" s="3">
-        <v>100000</v>
+        <v>100700</v>
       </c>
       <c r="G8" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="H8" s="3">
-        <v>45500</v>
+        <v>45900</v>
       </c>
       <c r="I8" s="3">
-        <v>115300</v>
+        <v>116200</v>
       </c>
       <c r="J8" s="3">
-        <v>57900</v>
+        <v>58400</v>
       </c>
       <c r="K8" s="3">
         <v>100500</v>
@@ -810,25 +810,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-20500</v>
+        <v>-20700</v>
       </c>
       <c r="E9" s="3">
-        <v>44500</v>
+        <v>44800</v>
       </c>
       <c r="F9" s="3">
-        <v>50300</v>
+        <v>50700</v>
       </c>
       <c r="G9" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="H9" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="I9" s="3">
-        <v>78100</v>
+        <v>78700</v>
       </c>
       <c r="J9" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="K9" s="3">
         <v>70100</v>
@@ -866,25 +866,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="E10" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="F10" s="3">
-        <v>49600</v>
+        <v>50000</v>
       </c>
       <c r="G10" s="3">
         <v>7000</v>
       </c>
       <c r="H10" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="I10" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="J10" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="K10" s="3">
         <v>30400</v>
@@ -1187,25 +1187,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="E17" s="3">
-        <v>49200</v>
+        <v>49500</v>
       </c>
       <c r="F17" s="3">
-        <v>53300</v>
+        <v>53700</v>
       </c>
       <c r="G17" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="H17" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I17" s="3">
-        <v>77600</v>
+        <v>78200</v>
       </c>
       <c r="J17" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="K17" s="3">
         <v>75100</v>
@@ -1243,25 +1243,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="E18" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="F18" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="G18" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H18" s="3">
-        <v>33600</v>
+        <v>33800</v>
       </c>
       <c r="I18" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="J18" s="3">
-        <v>33900</v>
+        <v>34200</v>
       </c>
       <c r="K18" s="3">
         <v>25400</v>
@@ -1330,7 +1330,7 @@
         <v>1600</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1489,25 +1489,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="E23" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="F23" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="G23" s="3">
         <v>7200</v>
       </c>
       <c r="H23" s="3">
-        <v>34000</v>
+        <v>34200</v>
       </c>
       <c r="I23" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="J23" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="K23" s="3">
         <v>27400</v>
@@ -1545,25 +1545,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F24" s="3">
         <v>9900</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H24" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="I24" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J24" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="K24" s="3">
         <v>7400</v>
@@ -1657,25 +1657,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E26" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F26" s="3">
-        <v>38400</v>
+        <v>38700</v>
       </c>
       <c r="G26" s="3">
         <v>4000</v>
       </c>
       <c r="H26" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="I26" s="3">
-        <v>30900</v>
+        <v>31200</v>
       </c>
       <c r="J26" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="K26" s="3">
         <v>20000</v>
@@ -1713,25 +1713,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="E27" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F27" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="G27" s="3">
         <v>4200</v>
       </c>
       <c r="H27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J27" s="3">
         <v>23200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>31600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>23100</v>
       </c>
       <c r="K27" s="3">
         <v>18500</v>
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-38800</v>
+        <v>-39100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2002,7 +2002,7 @@
         <v>-1600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -2049,25 +2049,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="E33" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F33" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="G33" s="3">
         <v>4200</v>
       </c>
       <c r="H33" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="I33" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="J33" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="K33" s="3">
         <v>18500</v>
@@ -2161,25 +2161,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="E35" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F35" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="G35" s="3">
         <v>4200</v>
       </c>
       <c r="H35" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="I35" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="J35" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="K35" s="3">
         <v>18500</v>
@@ -2322,25 +2322,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="E41" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="F41" s="3">
-        <v>30000</v>
+        <v>30200</v>
       </c>
       <c r="G41" s="3">
-        <v>106000</v>
+        <v>106800</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>81500</v>
       </c>
       <c r="I41" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="J41" s="3">
-        <v>40800</v>
+        <v>41100</v>
       </c>
       <c r="K41" s="3">
         <v>191600</v>
@@ -2434,25 +2434,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="E43" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8300</v>
-      </c>
       <c r="G43" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="H43" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="I43" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="J43" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="K43" s="3">
         <v>15000</v>
@@ -2546,25 +2546,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80800</v>
+        <v>81500</v>
       </c>
       <c r="E45" s="3">
-        <v>217200</v>
+        <v>218900</v>
       </c>
       <c r="F45" s="3">
-        <v>238200</v>
+        <v>240000</v>
       </c>
       <c r="G45" s="3">
-        <v>274800</v>
+        <v>276900</v>
       </c>
       <c r="H45" s="3">
-        <v>155200</v>
+        <v>156400</v>
       </c>
       <c r="I45" s="3">
-        <v>205100</v>
+        <v>206700</v>
       </c>
       <c r="J45" s="3">
-        <v>222400</v>
+        <v>224100</v>
       </c>
       <c r="K45" s="3">
         <v>64900</v>
@@ -2602,25 +2602,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>133000</v>
+        <v>134000</v>
       </c>
       <c r="E46" s="3">
-        <v>256100</v>
+        <v>258100</v>
       </c>
       <c r="F46" s="3">
-        <v>276500</v>
+        <v>278600</v>
       </c>
       <c r="G46" s="3">
-        <v>391800</v>
+        <v>394800</v>
       </c>
       <c r="H46" s="3">
-        <v>243000</v>
+        <v>244900</v>
       </c>
       <c r="I46" s="3">
-        <v>255600</v>
+        <v>257500</v>
       </c>
       <c r="J46" s="3">
-        <v>277500</v>
+        <v>279700</v>
       </c>
       <c r="K46" s="3">
         <v>271600</v>
@@ -2714,25 +2714,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="E48" s="3">
-        <v>182400</v>
+        <v>183800</v>
       </c>
       <c r="F48" s="3">
-        <v>183400</v>
+        <v>184800</v>
       </c>
       <c r="G48" s="3">
-        <v>185100</v>
+        <v>186500</v>
       </c>
       <c r="H48" s="3">
-        <v>184300</v>
+        <v>185800</v>
       </c>
       <c r="I48" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="J48" s="3">
-        <v>97200</v>
+        <v>97900</v>
       </c>
       <c r="K48" s="3">
         <v>101400</v>
@@ -2773,22 +2773,22 @@
         <v>2900</v>
       </c>
       <c r="E49" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="G49" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H49" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I49" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="J49" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -2938,22 +2938,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224500</v>
+        <v>226300</v>
       </c>
       <c r="E52" s="3">
-        <v>83600</v>
+        <v>84200</v>
       </c>
       <c r="F52" s="3">
-        <v>82600</v>
+        <v>83300</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>1900</v>
       </c>
       <c r="I52" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
@@ -3050,25 +3050,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>512100</v>
+        <v>516000</v>
       </c>
       <c r="E54" s="3">
-        <v>537200</v>
+        <v>541300</v>
       </c>
       <c r="F54" s="3">
-        <v>557700</v>
+        <v>562000</v>
       </c>
       <c r="G54" s="3">
-        <v>595500</v>
+        <v>600100</v>
       </c>
       <c r="H54" s="3">
-        <v>444500</v>
+        <v>448000</v>
       </c>
       <c r="I54" s="3">
-        <v>454200</v>
+        <v>457700</v>
       </c>
       <c r="J54" s="3">
-        <v>391900</v>
+        <v>394900</v>
       </c>
       <c r="K54" s="3">
         <v>390300</v>
@@ -3150,25 +3150,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="E57" s="3">
-        <v>36500</v>
+        <v>36700</v>
       </c>
       <c r="F57" s="3">
-        <v>38900</v>
+        <v>39200</v>
       </c>
       <c r="G57" s="3">
-        <v>44700</v>
+        <v>45000</v>
       </c>
       <c r="H57" s="3">
-        <v>42600</v>
+        <v>42900</v>
       </c>
       <c r="I57" s="3">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="J57" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -3262,25 +3262,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99700</v>
+        <v>100400</v>
       </c>
       <c r="E59" s="3">
-        <v>122600</v>
+        <v>123500</v>
       </c>
       <c r="F59" s="3">
-        <v>157900</v>
+        <v>159100</v>
       </c>
       <c r="G59" s="3">
-        <v>227800</v>
+        <v>229500</v>
       </c>
       <c r="H59" s="3">
-        <v>78500</v>
+        <v>79100</v>
       </c>
       <c r="I59" s="3">
-        <v>133400</v>
+        <v>134400</v>
       </c>
       <c r="J59" s="3">
-        <v>92100</v>
+        <v>92800</v>
       </c>
       <c r="K59" s="3">
         <v>136600</v>
@@ -3318,25 +3318,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>159500</v>
+        <v>160700</v>
       </c>
       <c r="E60" s="3">
-        <v>159700</v>
+        <v>160900</v>
       </c>
       <c r="F60" s="3">
-        <v>197200</v>
+        <v>198700</v>
       </c>
       <c r="G60" s="3">
-        <v>272900</v>
+        <v>275000</v>
       </c>
       <c r="H60" s="3">
-        <v>121400</v>
+        <v>122300</v>
       </c>
       <c r="I60" s="3">
-        <v>158800</v>
+        <v>160000</v>
       </c>
       <c r="J60" s="3">
-        <v>126200</v>
+        <v>127200</v>
       </c>
       <c r="K60" s="3">
         <v>160500</v>
@@ -3386,10 +3386,10 @@
         <v>3600</v>
       </c>
       <c r="H61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I61" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3654,25 +3654,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167500</v>
+        <v>168800</v>
       </c>
       <c r="E66" s="3">
-        <v>167800</v>
+        <v>169100</v>
       </c>
       <c r="F66" s="3">
-        <v>204000</v>
+        <v>205600</v>
       </c>
       <c r="G66" s="3">
-        <v>279200</v>
+        <v>281300</v>
       </c>
       <c r="H66" s="3">
-        <v>127200</v>
+        <v>128200</v>
       </c>
       <c r="I66" s="3">
-        <v>163800</v>
+        <v>165000</v>
       </c>
       <c r="J66" s="3">
-        <v>133200</v>
+        <v>134300</v>
       </c>
       <c r="K66" s="3">
         <v>165000</v>
@@ -3956,25 +3956,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>292400</v>
+        <v>294700</v>
       </c>
       <c r="E72" s="3">
-        <v>314100</v>
+        <v>316500</v>
       </c>
       <c r="F72" s="3">
-        <v>298400</v>
+        <v>300700</v>
       </c>
       <c r="G72" s="3">
-        <v>261100</v>
+        <v>263100</v>
       </c>
       <c r="H72" s="3">
-        <v>256600</v>
+        <v>258600</v>
       </c>
       <c r="I72" s="3">
-        <v>230000</v>
+        <v>231800</v>
       </c>
       <c r="J72" s="3">
-        <v>198200</v>
+        <v>199700</v>
       </c>
       <c r="K72" s="3">
         <v>168200</v>
@@ -4180,25 +4180,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>344500</v>
+        <v>347200</v>
       </c>
       <c r="E76" s="3">
-        <v>369400</v>
+        <v>372200</v>
       </c>
       <c r="F76" s="3">
-        <v>353700</v>
+        <v>356400</v>
       </c>
       <c r="G76" s="3">
-        <v>316400</v>
+        <v>318800</v>
       </c>
       <c r="H76" s="3">
-        <v>317300</v>
+        <v>319800</v>
       </c>
       <c r="I76" s="3">
-        <v>290400</v>
+        <v>292600</v>
       </c>
       <c r="J76" s="3">
-        <v>258600</v>
+        <v>260600</v>
       </c>
       <c r="K76" s="3">
         <v>225300</v>
@@ -4353,25 +4353,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20800</v>
+        <v>-20900</v>
       </c>
       <c r="E81" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F81" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="G81" s="3">
         <v>4200</v>
       </c>
       <c r="H81" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="I81" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="J81" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="K81" s="3">
         <v>18500</v>
@@ -4779,10 +4779,10 @@
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>69600</v>
+        <v>70100</v>
       </c>
       <c r="I89" s="3">
-        <v>74500</v>
+        <v>75100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -5025,10 +5025,10 @@
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-20200</v>
       </c>
       <c r="I94" s="3">
-        <v>-71600</v>
+        <v>-72100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -5330,7 +5330,7 @@
         <v>-7900</v>
       </c>
       <c r="I100" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -757,22 +757,22 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>68600</v>
+        <v>64100</v>
       </c>
       <c r="F8" s="3">
-        <v>100700</v>
+        <v>94100</v>
       </c>
       <c r="G8" s="3">
-        <v>47100</v>
+        <v>44000</v>
       </c>
       <c r="H8" s="3">
-        <v>45900</v>
+        <v>42800</v>
       </c>
       <c r="I8" s="3">
-        <v>116200</v>
+        <v>108600</v>
       </c>
       <c r="J8" s="3">
-        <v>58400</v>
+        <v>54500</v>
       </c>
       <c r="K8" s="3">
         <v>100500</v>
@@ -810,25 +810,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-20700</v>
+        <v>-19300</v>
       </c>
       <c r="E9" s="3">
-        <v>44800</v>
+        <v>41800</v>
       </c>
       <c r="F9" s="3">
-        <v>50700</v>
+        <v>47400</v>
       </c>
       <c r="G9" s="3">
-        <v>40100</v>
+        <v>37400</v>
       </c>
       <c r="H9" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I9" s="3">
-        <v>78700</v>
+        <v>73500</v>
       </c>
       <c r="J9" s="3">
-        <v>25100</v>
+        <v>23400</v>
       </c>
       <c r="K9" s="3">
         <v>70100</v>
@@ -866,25 +866,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="E10" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="F10" s="3">
-        <v>50000</v>
+        <v>46700</v>
       </c>
       <c r="G10" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="H10" s="3">
-        <v>33000</v>
+        <v>30800</v>
       </c>
       <c r="I10" s="3">
-        <v>37500</v>
+        <v>35000</v>
       </c>
       <c r="J10" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="K10" s="3">
         <v>30400</v>
@@ -1187,25 +1187,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-23900</v>
+        <v>-22300</v>
       </c>
       <c r="E17" s="3">
-        <v>49500</v>
+        <v>46300</v>
       </c>
       <c r="F17" s="3">
-        <v>53700</v>
+        <v>50100</v>
       </c>
       <c r="G17" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="H17" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="I17" s="3">
-        <v>78200</v>
+        <v>73100</v>
       </c>
       <c r="J17" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="K17" s="3">
         <v>75100</v>
@@ -1243,25 +1243,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="E18" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="F18" s="3">
-        <v>47100</v>
+        <v>43900</v>
       </c>
       <c r="G18" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="H18" s="3">
-        <v>33800</v>
+        <v>31600</v>
       </c>
       <c r="I18" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="J18" s="3">
-        <v>34200</v>
+        <v>31900</v>
       </c>
       <c r="K18" s="3">
         <v>25400</v>
@@ -1324,19 +1324,19 @@
         <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>1600</v>
-      </c>
       <c r="G20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
         <v>600</v>
@@ -1489,25 +1489,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="E23" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="F23" s="3">
-        <v>48700</v>
+        <v>45500</v>
       </c>
       <c r="G23" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="H23" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="I23" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="J23" s="3">
-        <v>34800</v>
+        <v>32500</v>
       </c>
       <c r="K23" s="3">
         <v>27400</v>
@@ -1545,25 +1545,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F24" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="I24" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J24" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="K24" s="3">
         <v>7400</v>
@@ -1657,25 +1657,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="E26" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="F26" s="3">
-        <v>38700</v>
+        <v>36200</v>
       </c>
       <c r="G26" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H26" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="I26" s="3">
-        <v>31200</v>
+        <v>29100</v>
       </c>
       <c r="J26" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="K26" s="3">
         <v>20000</v>
@@ -1713,25 +1713,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="E27" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="F27" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="G27" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H27" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="I27" s="3">
-        <v>31900</v>
+        <v>29800</v>
       </c>
       <c r="J27" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="K27" s="3">
         <v>18500</v>
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-39100</v>
+        <v>-36500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1837,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1996,19 +1996,19 @@
         <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
         <v>-600</v>
@@ -2049,25 +2049,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="E33" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="F33" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="G33" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H33" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="I33" s="3">
-        <v>31900</v>
+        <v>29800</v>
       </c>
       <c r="J33" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="K33" s="3">
         <v>18500</v>
@@ -2161,25 +2161,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="E35" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="F35" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="G35" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H35" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="I35" s="3">
-        <v>31900</v>
+        <v>29800</v>
       </c>
       <c r="J35" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="K35" s="3">
         <v>18500</v>
@@ -2322,25 +2322,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44100</v>
+        <v>41200</v>
       </c>
       <c r="E41" s="3">
-        <v>30500</v>
+        <v>28500</v>
       </c>
       <c r="F41" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="G41" s="3">
-        <v>106800</v>
+        <v>99700</v>
       </c>
       <c r="H41" s="3">
-        <v>81500</v>
+        <v>76100</v>
       </c>
       <c r="I41" s="3">
-        <v>36000</v>
+        <v>33600</v>
       </c>
       <c r="J41" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="K41" s="3">
         <v>191600</v>
@@ -2434,25 +2434,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="G43" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="H43" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
       <c r="I43" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="J43" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="K43" s="3">
         <v>15000</v>
@@ -2546,25 +2546,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81500</v>
+        <v>76100</v>
       </c>
       <c r="E45" s="3">
-        <v>218900</v>
+        <v>204500</v>
       </c>
       <c r="F45" s="3">
-        <v>240000</v>
+        <v>224200</v>
       </c>
       <c r="G45" s="3">
-        <v>276900</v>
+        <v>258700</v>
       </c>
       <c r="H45" s="3">
-        <v>156400</v>
+        <v>146100</v>
       </c>
       <c r="I45" s="3">
-        <v>206700</v>
+        <v>193100</v>
       </c>
       <c r="J45" s="3">
-        <v>224100</v>
+        <v>209300</v>
       </c>
       <c r="K45" s="3">
         <v>64900</v>
@@ -2602,25 +2602,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>134000</v>
+        <v>125200</v>
       </c>
       <c r="E46" s="3">
-        <v>258100</v>
+        <v>241100</v>
       </c>
       <c r="F46" s="3">
-        <v>278600</v>
+        <v>260300</v>
       </c>
       <c r="G46" s="3">
-        <v>394800</v>
+        <v>368700</v>
       </c>
       <c r="H46" s="3">
-        <v>244900</v>
+        <v>228800</v>
       </c>
       <c r="I46" s="3">
-        <v>257500</v>
+        <v>240500</v>
       </c>
       <c r="J46" s="3">
-        <v>279700</v>
+        <v>261200</v>
       </c>
       <c r="K46" s="3">
         <v>271600</v>
@@ -2714,25 +2714,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152800</v>
+        <v>142700</v>
       </c>
       <c r="E48" s="3">
-        <v>183800</v>
+        <v>171700</v>
       </c>
       <c r="F48" s="3">
-        <v>184800</v>
+        <v>172600</v>
       </c>
       <c r="G48" s="3">
-        <v>186500</v>
+        <v>174200</v>
       </c>
       <c r="H48" s="3">
-        <v>185800</v>
+        <v>173500</v>
       </c>
       <c r="I48" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="J48" s="3">
-        <v>97900</v>
+        <v>91500</v>
       </c>
       <c r="K48" s="3">
         <v>101400</v>
@@ -2770,25 +2770,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="F49" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="G49" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="H49" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="I49" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="J49" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -2938,25 +2938,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>226300</v>
+        <v>211300</v>
       </c>
       <c r="E52" s="3">
-        <v>84200</v>
+        <v>78700</v>
       </c>
       <c r="F52" s="3">
-        <v>83300</v>
+        <v>77800</v>
       </c>
       <c r="G52" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>2600</v>
@@ -3050,25 +3050,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>516000</v>
+        <v>482000</v>
       </c>
       <c r="E54" s="3">
-        <v>541300</v>
+        <v>505600</v>
       </c>
       <c r="F54" s="3">
-        <v>562000</v>
+        <v>524900</v>
       </c>
       <c r="G54" s="3">
-        <v>600100</v>
+        <v>560500</v>
       </c>
       <c r="H54" s="3">
-        <v>448000</v>
+        <v>418400</v>
       </c>
       <c r="I54" s="3">
-        <v>457700</v>
+        <v>427500</v>
       </c>
       <c r="J54" s="3">
-        <v>394900</v>
+        <v>368800</v>
       </c>
       <c r="K54" s="3">
         <v>390300</v>
@@ -3150,25 +3150,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59400</v>
+        <v>55500</v>
       </c>
       <c r="E57" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="F57" s="3">
-        <v>39200</v>
+        <v>36600</v>
       </c>
       <c r="G57" s="3">
-        <v>45000</v>
+        <v>42100</v>
       </c>
       <c r="H57" s="3">
-        <v>42900</v>
+        <v>40100</v>
       </c>
       <c r="I57" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="J57" s="3">
-        <v>34400</v>
+        <v>32100</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -3262,25 +3262,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100400</v>
+        <v>93800</v>
       </c>
       <c r="E59" s="3">
-        <v>123500</v>
+        <v>115400</v>
       </c>
       <c r="F59" s="3">
-        <v>159100</v>
+        <v>148600</v>
       </c>
       <c r="G59" s="3">
-        <v>229500</v>
+        <v>214400</v>
       </c>
       <c r="H59" s="3">
-        <v>79100</v>
+        <v>73900</v>
       </c>
       <c r="I59" s="3">
-        <v>134400</v>
+        <v>125500</v>
       </c>
       <c r="J59" s="3">
-        <v>92800</v>
+        <v>86700</v>
       </c>
       <c r="K59" s="3">
         <v>136600</v>
@@ -3318,25 +3318,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>160700</v>
+        <v>150100</v>
       </c>
       <c r="E60" s="3">
-        <v>160900</v>
+        <v>150300</v>
       </c>
       <c r="F60" s="3">
-        <v>198700</v>
+        <v>185600</v>
       </c>
       <c r="G60" s="3">
-        <v>275000</v>
+        <v>256900</v>
       </c>
       <c r="H60" s="3">
-        <v>122300</v>
+        <v>114200</v>
       </c>
       <c r="I60" s="3">
-        <v>160000</v>
+        <v>149500</v>
       </c>
       <c r="J60" s="3">
-        <v>127200</v>
+        <v>118800</v>
       </c>
       <c r="K60" s="3">
         <v>160500</v>
@@ -3374,22 +3374,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F61" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G61" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="H61" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I61" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
-        <v>1300</v>
-      </c>
       <c r="H62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -3654,25 +3654,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>168800</v>
+        <v>157700</v>
       </c>
       <c r="E66" s="3">
-        <v>169100</v>
+        <v>157900</v>
       </c>
       <c r="F66" s="3">
-        <v>205600</v>
+        <v>192000</v>
       </c>
       <c r="G66" s="3">
-        <v>281300</v>
+        <v>262800</v>
       </c>
       <c r="H66" s="3">
-        <v>128200</v>
+        <v>119700</v>
       </c>
       <c r="I66" s="3">
-        <v>165000</v>
+        <v>154100</v>
       </c>
       <c r="J66" s="3">
-        <v>134300</v>
+        <v>125400</v>
       </c>
       <c r="K66" s="3">
         <v>165000</v>
@@ -3956,25 +3956,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>294700</v>
+        <v>275200</v>
       </c>
       <c r="E72" s="3">
-        <v>316500</v>
+        <v>295700</v>
       </c>
       <c r="F72" s="3">
-        <v>300700</v>
+        <v>280900</v>
       </c>
       <c r="G72" s="3">
-        <v>263100</v>
+        <v>245800</v>
       </c>
       <c r="H72" s="3">
-        <v>258600</v>
+        <v>241500</v>
       </c>
       <c r="I72" s="3">
-        <v>231800</v>
+        <v>216500</v>
       </c>
       <c r="J72" s="3">
-        <v>199700</v>
+        <v>186500</v>
       </c>
       <c r="K72" s="3">
         <v>168200</v>
@@ -4180,25 +4180,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>347200</v>
+        <v>324300</v>
       </c>
       <c r="E76" s="3">
-        <v>372200</v>
+        <v>347700</v>
       </c>
       <c r="F76" s="3">
-        <v>356400</v>
+        <v>332900</v>
       </c>
       <c r="G76" s="3">
-        <v>318800</v>
+        <v>297800</v>
       </c>
       <c r="H76" s="3">
-        <v>319800</v>
+        <v>298700</v>
       </c>
       <c r="I76" s="3">
-        <v>292600</v>
+        <v>273300</v>
       </c>
       <c r="J76" s="3">
-        <v>260600</v>
+        <v>243400</v>
       </c>
       <c r="K76" s="3">
         <v>225300</v>
@@ -4353,25 +4353,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="E81" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="F81" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="G81" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H81" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="I81" s="3">
-        <v>31900</v>
+        <v>29800</v>
       </c>
       <c r="J81" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="K81" s="3">
         <v>18500</v>
@@ -4779,10 +4779,10 @@
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>70100</v>
+        <v>65500</v>
       </c>
       <c r="I89" s="3">
-        <v>75100</v>
+        <v>70200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -5025,10 +5025,10 @@
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-20200</v>
+        <v>-18800</v>
       </c>
       <c r="I94" s="3">
-        <v>-72100</v>
+        <v>-67400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -5327,10 +5327,10 @@
         <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="I100" s="3">
-        <v>-8200</v>
+        <v>-7600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLG_QTR_FIN.xlsx
@@ -757,22 +757,22 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>64100</v>
+        <v>63500</v>
       </c>
       <c r="F8" s="3">
-        <v>94100</v>
+        <v>93200</v>
       </c>
       <c r="G8" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="H8" s="3">
-        <v>42800</v>
+        <v>42500</v>
       </c>
       <c r="I8" s="3">
-        <v>108600</v>
+        <v>107600</v>
       </c>
       <c r="J8" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="K8" s="3">
         <v>100500</v>
@@ -810,25 +810,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-19300</v>
+        <v>-19100</v>
       </c>
       <c r="E9" s="3">
-        <v>41800</v>
+        <v>41500</v>
       </c>
       <c r="F9" s="3">
-        <v>47400</v>
+        <v>47000</v>
       </c>
       <c r="G9" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="H9" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I9" s="3">
-        <v>73500</v>
+        <v>72900</v>
       </c>
       <c r="J9" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="K9" s="3">
         <v>70100</v>
@@ -866,25 +866,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="E10" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="F10" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="G10" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H10" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="I10" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="J10" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="K10" s="3">
         <v>30400</v>
@@ -1187,25 +1187,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-22300</v>
+        <v>-22100</v>
       </c>
       <c r="E17" s="3">
-        <v>46300</v>
+        <v>45900</v>
       </c>
       <c r="F17" s="3">
-        <v>50100</v>
+        <v>49700</v>
       </c>
       <c r="G17" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="H17" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="I17" s="3">
-        <v>73100</v>
+        <v>72400</v>
       </c>
       <c r="J17" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="K17" s="3">
         <v>75100</v>
@@ -1243,25 +1243,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E18" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="F18" s="3">
-        <v>43900</v>
+        <v>43600</v>
       </c>
       <c r="G18" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H18" s="3">
+        <v>31300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J18" s="3">
         <v>31600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>35500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>31900</v>
       </c>
       <c r="K18" s="3">
         <v>25400</v>
@@ -1489,25 +1489,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="E23" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="F23" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="G23" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H23" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="I23" s="3">
-        <v>37000</v>
+        <v>36600</v>
       </c>
       <c r="J23" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="K23" s="3">
         <v>27400</v>
@@ -1545,19 +1545,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F24" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G24" s="3">
         <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="3">
         <v>7800</v>
@@ -1657,25 +1657,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E26" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="F26" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="G26" s="3">
         <v>3700</v>
       </c>
       <c r="H26" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="I26" s="3">
-        <v>29100</v>
+        <v>28900</v>
       </c>
       <c r="J26" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="K26" s="3">
         <v>20000</v>
@@ -1713,25 +1713,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="E27" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F27" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="G27" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H27" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="I27" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="J27" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="K27" s="3">
         <v>18500</v>
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1837,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2049,25 +2049,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="E33" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F33" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="G33" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H33" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="I33" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="J33" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="K33" s="3">
         <v>18500</v>
@@ -2161,25 +2161,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="E35" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F35" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="G35" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H35" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="I35" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="J35" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="K35" s="3">
         <v>18500</v>
@@ -2322,25 +2322,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="E41" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="F41" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G41" s="3">
-        <v>99700</v>
+        <v>98800</v>
       </c>
       <c r="H41" s="3">
-        <v>76100</v>
+        <v>75400</v>
       </c>
       <c r="I41" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="J41" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="K41" s="3">
         <v>191600</v>
@@ -2440,19 +2440,19 @@
         <v>8100</v>
       </c>
       <c r="F43" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G43" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H43" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I43" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="J43" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="K43" s="3">
         <v>15000</v>
@@ -2546,25 +2546,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>76100</v>
+        <v>75400</v>
       </c>
       <c r="E45" s="3">
-        <v>204500</v>
+        <v>202600</v>
       </c>
       <c r="F45" s="3">
-        <v>224200</v>
+        <v>222200</v>
       </c>
       <c r="G45" s="3">
-        <v>258700</v>
+        <v>256300</v>
       </c>
       <c r="H45" s="3">
-        <v>146100</v>
+        <v>144700</v>
       </c>
       <c r="I45" s="3">
-        <v>193100</v>
+        <v>191300</v>
       </c>
       <c r="J45" s="3">
-        <v>209300</v>
+        <v>207400</v>
       </c>
       <c r="K45" s="3">
         <v>64900</v>
@@ -2602,25 +2602,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125200</v>
+        <v>124100</v>
       </c>
       <c r="E46" s="3">
-        <v>241100</v>
+        <v>238900</v>
       </c>
       <c r="F46" s="3">
-        <v>260300</v>
+        <v>257900</v>
       </c>
       <c r="G46" s="3">
-        <v>368700</v>
+        <v>365400</v>
       </c>
       <c r="H46" s="3">
-        <v>228800</v>
+        <v>226700</v>
       </c>
       <c r="I46" s="3">
-        <v>240500</v>
+        <v>238400</v>
       </c>
       <c r="J46" s="3">
-        <v>261200</v>
+        <v>258900</v>
       </c>
       <c r="K46" s="3">
         <v>271600</v>
@@ -2714,25 +2714,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="E48" s="3">
-        <v>171700</v>
+        <v>170100</v>
       </c>
       <c r="F48" s="3">
+        <v>171100</v>
+      </c>
+      <c r="G48" s="3">
         <v>172600</v>
       </c>
-      <c r="G48" s="3">
-        <v>174200</v>
-      </c>
       <c r="H48" s="3">
-        <v>173500</v>
+        <v>171900</v>
       </c>
       <c r="I48" s="3">
-        <v>170300</v>
+        <v>168700</v>
       </c>
       <c r="J48" s="3">
-        <v>91500</v>
+        <v>90600</v>
       </c>
       <c r="K48" s="3">
         <v>101400</v>
@@ -2773,22 +2773,22 @@
         <v>2700</v>
       </c>
       <c r="E49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G49" s="3">
         <v>14200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>14400</v>
       </c>
-      <c r="H49" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14600</v>
-      </c>
       <c r="J49" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="K49" s="3">
         <v>14700</v>
@@ -2938,13 +2938,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>211300</v>
+        <v>209400</v>
       </c>
       <c r="E52" s="3">
-        <v>78700</v>
+        <v>78000</v>
       </c>
       <c r="F52" s="3">
-        <v>77800</v>
+        <v>77100</v>
       </c>
       <c r="G52" s="3">
         <v>3200</v>
@@ -3050,25 +3050,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482000</v>
+        <v>477600</v>
       </c>
       <c r="E54" s="3">
-        <v>505600</v>
+        <v>501000</v>
       </c>
       <c r="F54" s="3">
-        <v>524900</v>
+        <v>520200</v>
       </c>
       <c r="G54" s="3">
-        <v>560500</v>
+        <v>555500</v>
       </c>
       <c r="H54" s="3">
-        <v>418400</v>
+        <v>414600</v>
       </c>
       <c r="I54" s="3">
-        <v>427500</v>
+        <v>423600</v>
       </c>
       <c r="J54" s="3">
-        <v>368800</v>
+        <v>365500</v>
       </c>
       <c r="K54" s="3">
         <v>390300</v>
@@ -3150,25 +3150,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55500</v>
+        <v>55000</v>
       </c>
       <c r="E57" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F57" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="G57" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="H57" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="I57" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="J57" s="3">
-        <v>32100</v>
+        <v>31900</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -3209,7 +3209,7 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3262,25 +3262,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93800</v>
+        <v>93000</v>
       </c>
       <c r="E59" s="3">
-        <v>115400</v>
+        <v>114300</v>
       </c>
       <c r="F59" s="3">
-        <v>148600</v>
+        <v>147300</v>
       </c>
       <c r="G59" s="3">
-        <v>214400</v>
+        <v>212500</v>
       </c>
       <c r="H59" s="3">
-        <v>73900</v>
+        <v>73200</v>
       </c>
       <c r="I59" s="3">
-        <v>125500</v>
+        <v>124400</v>
       </c>
       <c r="J59" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="K59" s="3">
         <v>136600</v>
@@ -3318,25 +3318,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150100</v>
+        <v>148700</v>
       </c>
       <c r="E60" s="3">
-        <v>150300</v>
+        <v>149000</v>
       </c>
       <c r="F60" s="3">
-        <v>185600</v>
+        <v>183900</v>
       </c>
       <c r="G60" s="3">
-        <v>256900</v>
+        <v>254500</v>
       </c>
       <c r="H60" s="3">
-        <v>114200</v>
+        <v>113200</v>
       </c>
       <c r="I60" s="3">
-        <v>149500</v>
+        <v>148100</v>
       </c>
       <c r="J60" s="3">
-        <v>118800</v>
+        <v>117800</v>
       </c>
       <c r="K60" s="3">
         <v>160500</v>
@@ -3377,16 +3377,16 @@
         <v>4500</v>
       </c>
       <c r="E61" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F61" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
         <v>3300</v>
       </c>
       <c r="H61" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I61" s="3">
         <v>2400</v>
@@ -3445,7 +3445,7 @@
         <v>1100</v>
       </c>
       <c r="I62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1100</v>
@@ -3654,25 +3654,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>157700</v>
+        <v>156300</v>
       </c>
       <c r="E66" s="3">
-        <v>157900</v>
+        <v>156500</v>
       </c>
       <c r="F66" s="3">
-        <v>192000</v>
+        <v>190300</v>
       </c>
       <c r="G66" s="3">
-        <v>262800</v>
+        <v>260400</v>
       </c>
       <c r="H66" s="3">
-        <v>119700</v>
+        <v>118700</v>
       </c>
       <c r="I66" s="3">
-        <v>154100</v>
+        <v>152800</v>
       </c>
       <c r="J66" s="3">
-        <v>125400</v>
+        <v>124300</v>
       </c>
       <c r="K66" s="3">
         <v>165000</v>
@@ -3956,25 +3956,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>275200</v>
+        <v>272800</v>
       </c>
       <c r="E72" s="3">
-        <v>295700</v>
+        <v>293000</v>
       </c>
       <c r="F72" s="3">
-        <v>280900</v>
+        <v>278400</v>
       </c>
       <c r="G72" s="3">
-        <v>245800</v>
+        <v>243600</v>
       </c>
       <c r="H72" s="3">
-        <v>241500</v>
+        <v>239300</v>
       </c>
       <c r="I72" s="3">
-        <v>216500</v>
+        <v>214500</v>
       </c>
       <c r="J72" s="3">
-        <v>186500</v>
+        <v>184900</v>
       </c>
       <c r="K72" s="3">
         <v>168200</v>
@@ -4180,25 +4180,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>324300</v>
+        <v>321400</v>
       </c>
       <c r="E76" s="3">
-        <v>347700</v>
+        <v>344500</v>
       </c>
       <c r="F76" s="3">
-        <v>332900</v>
+        <v>329900</v>
       </c>
       <c r="G76" s="3">
-        <v>297800</v>
+        <v>295100</v>
       </c>
       <c r="H76" s="3">
-        <v>298700</v>
+        <v>296000</v>
       </c>
       <c r="I76" s="3">
-        <v>273300</v>
+        <v>270900</v>
       </c>
       <c r="J76" s="3">
-        <v>243400</v>
+        <v>241200</v>
       </c>
       <c r="K76" s="3">
         <v>225300</v>
@@ -4353,25 +4353,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="E81" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F81" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="G81" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H81" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="I81" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="J81" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="K81" s="3">
         <v>18500</v>
@@ -4779,10 +4779,10 @@
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>65500</v>
+        <v>64900</v>
       </c>
       <c r="I89" s="3">
-        <v>70200</v>
+        <v>69500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -5025,10 +5025,10 @@
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-18800</v>
+        <v>-18700</v>
       </c>
       <c r="I94" s="3">
-        <v>-67400</v>
+        <v>-66800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
